--- a/R/Init_nums_scalar_for_recruits.xlsx
+++ b/R/Init_nums_scalar_for_recruits.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vert_order" sheetId="3" r:id="rId1"/>
     <sheet name="Init_nums_scalar_for_recruits" sheetId="1" r:id="rId2"/>
     <sheet name="format" sheetId="4" r:id="rId3"/>
     <sheet name="20190226" sheetId="5" r:id="rId4"/>
-    <sheet name="codenames" sheetId="2" r:id="rId5"/>
+    <sheet name="20190301" sheetId="6" r:id="rId5"/>
+    <sheet name="codenames" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="449">
   <si>
     <t>species</t>
   </si>
@@ -2188,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K60"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,107 +2238,107 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2377,783 +2378,783 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
-      </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>194</v>
-      </c>
       <c r="K8">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K22">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25">
-        <v>42</v>
-      </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="H25">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="K25">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27">
-        <v>31</v>
-      </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="K27">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
         <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28">
-        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>157</v>
@@ -3162,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3182,13 +3183,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
         <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>157</v>
@@ -3197,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3217,83 +3218,83 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30">
-        <v>40</v>
-      </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31">
-        <v>52</v>
-      </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="K31">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
         <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>157</v>
@@ -3302,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3322,83 +3323,83 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33">
-        <v>28</v>
-      </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H33">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="K33">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34">
-        <v>38</v>
-      </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="K34">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
@@ -3407,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3427,48 +3428,48 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36">
-        <v>46</v>
-      </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="K36">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
         <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37">
-        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>157</v>
@@ -3477,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3497,48 +3498,48 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38">
-        <v>55</v>
-      </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K38">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
         <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39">
-        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>157</v>
@@ -3547,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3567,188 +3568,188 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41">
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
         <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41">
-        <v>20</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42">
-        <v>59</v>
-      </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H42">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43">
-        <v>11</v>
-      </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="K43">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44">
-        <v>44</v>
-      </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H44">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="K44">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
         <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45">
-        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>189</v>
@@ -3757,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -3777,28 +3778,28 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46">
         <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46">
-        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>189</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H46">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3812,497 +3813,497 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48">
-        <v>32</v>
-      </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="K48">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49">
-        <v>33</v>
-      </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="K49">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50">
-        <v>57</v>
-      </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H50">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="K50">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51">
-        <v>23</v>
-      </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H51">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="K51">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52">
-        <v>43</v>
-      </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="K52">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53">
-        <v>39</v>
-      </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H53">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="K53">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54">
-        <v>29</v>
-      </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="K54">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55">
-        <v>35</v>
-      </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="K55">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56">
-        <v>37</v>
-      </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="H56">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K56">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57">
-        <v>9</v>
-      </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="K57">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58">
-        <v>48</v>
-      </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="K58">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59">
-        <v>51</v>
-      </c>
       <c r="D59" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H59">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="K59">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60">
-        <v>22</v>
-      </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="H60">
+        <v>59</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>297</v>
+      </c>
+      <c r="K60">
         <v>21</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>55</v>
-      </c>
-      <c r="K60">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K60">
-    <sortCondition ref="A2:A60"/>
+    <sortCondition ref="C2:C60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4313,7 +4314,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L44" si="0">INDEX($I:$I,D13)</f>
+        <f t="shared" ref="L13" si="0">INDEX($I:$I,D13)</f>
         <v>KDENER_WPF</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -7329,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L45" si="1">INDEX($G:$G,D14)</f>
+        <f t="shared" ref="L14" si="1">INDEX($G:$G,D14)</f>
         <v>8501185.1916870549</v>
       </c>
       <c r="N14" s="2">
@@ -7353,7 +7354,7 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L46" si="2">INDEX($I:$I,D15)</f>
+        <f t="shared" ref="L15:L16" si="2">INDEX($I:$I,D15)</f>
         <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -7416,7 +7417,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L48" si="3">INDEX($G:$G,D17)</f>
+        <f t="shared" ref="L17" si="3">INDEX($G:$G,D17)</f>
         <v>18075758.592825942</v>
       </c>
       <c r="N17" s="2">
@@ -7440,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L49" si="4">INDEX($I:$I,D18)</f>
+        <f t="shared" ref="L18:L19" si="4">INDEX($I:$I,D18)</f>
         <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -7503,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L51" si="5">INDEX($G:$G,D20)</f>
+        <f t="shared" ref="L20" si="5">INDEX($G:$G,D20)</f>
         <v>129949506.65186316</v>
       </c>
       <c r="N20" s="2">
@@ -7527,7 +7528,7 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L52" si="6">INDEX($I:$I,D21)</f>
+        <f t="shared" ref="L21:L22" si="6">INDEX($I:$I,D21)</f>
         <v>0</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -7590,7 +7591,7 @@
         <v>8</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:L54" si="7">INDEX($G:$G,D23)</f>
+        <f t="shared" ref="L23" si="7">INDEX($G:$G,D23)</f>
         <v>12979386.939282568</v>
       </c>
       <c r="N23" s="2">
@@ -7614,7 +7615,7 @@
         <v>8</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L55" si="8">INDEX($I:$I,D24)</f>
+        <f t="shared" ref="L24:L25" si="8">INDEX($I:$I,D24)</f>
         <v>0</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -7677,7 +7678,7 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L57" si="9">INDEX($G:$G,D26)</f>
+        <f t="shared" ref="L26" si="9">INDEX($G:$G,D26)</f>
         <v>64257.026343685262</v>
       </c>
       <c r="N26" s="2">
@@ -7701,7 +7702,7 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:L58" si="10">INDEX($I:$I,D27)</f>
+        <f t="shared" ref="L27:L28" si="10">INDEX($I:$I,D27)</f>
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -7764,7 +7765,7 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L60" si="11">INDEX($G:$G,D29)</f>
+        <f t="shared" ref="L29" si="11">INDEX($G:$G,D29)</f>
         <v>15606092.371507009</v>
       </c>
       <c r="N29" s="2">
@@ -7788,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L61" si="12">INDEX($I:$I,D30)</f>
+        <f t="shared" ref="L30:L31" si="12">INDEX($I:$I,D30)</f>
         <v>0</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -7851,7 +7852,7 @@
         <v>11</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:L63" si="13">INDEX($G:$G,D32)</f>
+        <f t="shared" ref="L32" si="13">INDEX($G:$G,D32)</f>
         <v>7470713.3299367456</v>
       </c>
       <c r="N32" s="2">
@@ -7875,7 +7876,7 @@
         <v>11</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L64" si="14">INDEX($I:$I,D33)</f>
+        <f t="shared" ref="L33:L34" si="14">INDEX($I:$I,D33)</f>
         <v>0</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -7938,7 +7939,7 @@
         <v>12</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L66" si="15">INDEX($G:$G,D35)</f>
+        <f t="shared" ref="L35" si="15">INDEX($G:$G,D35)</f>
         <v>1003498.2708825993</v>
       </c>
       <c r="N35" s="2">
@@ -7962,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L67" si="16">INDEX($I:$I,D36)</f>
+        <f t="shared" ref="L36:L37" si="16">INDEX($I:$I,D36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -8025,7 +8026,7 @@
         <v>13</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L69" si="17">INDEX($G:$G,D38)</f>
+        <f t="shared" ref="L38" si="17">INDEX($G:$G,D38)</f>
         <v>30111.372533171714</v>
       </c>
       <c r="N38" s="2">
@@ -8049,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L70" si="18">INDEX($I:$I,D39)</f>
+        <f t="shared" ref="L39:L40" si="18">INDEX($I:$I,D39)</f>
         <v>0</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -8112,7 +8113,7 @@
         <v>14</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:L72" si="19">INDEX($G:$G,D41)</f>
+        <f t="shared" ref="L41" si="19">INDEX($G:$G,D41)</f>
         <v>381463.77119900385</v>
       </c>
       <c r="N41" s="2">
@@ -8136,7 +8137,7 @@
         <v>14</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:L73" si="20">INDEX($I:$I,D42)</f>
+        <f t="shared" ref="L42:L43" si="20">INDEX($I:$I,D42)</f>
         <v>0</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -8199,7 +8200,7 @@
         <v>15</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:L75" si="21">INDEX($G:$G,D44)</f>
+        <f t="shared" ref="L44" si="21">INDEX($G:$G,D44)</f>
         <v>14003.612613062383</v>
       </c>
       <c r="N44" s="2">
@@ -8223,7 +8224,7 @@
         <v>15</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:L76" si="22">INDEX($I:$I,D45)</f>
+        <f t="shared" ref="L45:L46" si="22">INDEX($I:$I,D45)</f>
         <v>0</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -8286,7 +8287,7 @@
         <v>16</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:L78" si="23">INDEX($G:$G,D47)</f>
+        <f t="shared" ref="L47" si="23">INDEX($G:$G,D47)</f>
         <v>705901.63557359751</v>
       </c>
       <c r="N47" s="2">
@@ -8310,7 +8311,7 @@
         <v>16</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:L79" si="24">INDEX($I:$I,D48)</f>
+        <f t="shared" ref="L48:L49" si="24">INDEX($I:$I,D48)</f>
         <v>0</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -8373,7 +8374,7 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:L81" si="25">INDEX($G:$G,D50)</f>
+        <f t="shared" ref="L50" si="25">INDEX($G:$G,D50)</f>
         <v>39668374.81521333</v>
       </c>
       <c r="N50" s="2">
@@ -8397,7 +8398,7 @@
         <v>17</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L82" si="26">INDEX($I:$I,D51)</f>
+        <f t="shared" ref="L51:L52" si="26">INDEX($I:$I,D51)</f>
         <v>0</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -8460,7 +8461,7 @@
         <v>18</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L84" si="27">INDEX($G:$G,D53)</f>
+        <f t="shared" ref="L53" si="27">INDEX($G:$G,D53)</f>
         <v>7100269.013061828</v>
       </c>
       <c r="N53" s="2">
@@ -8484,7 +8485,7 @@
         <v>18</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:L85" si="28">INDEX($I:$I,D54)</f>
+        <f t="shared" ref="L54:L55" si="28">INDEX($I:$I,D54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -8547,7 +8548,7 @@
         <v>19</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56:L87" si="29">INDEX($G:$G,D56)</f>
+        <f t="shared" ref="L56" si="29">INDEX($G:$G,D56)</f>
         <v>1446007267.4221833</v>
       </c>
       <c r="N56" s="2">
@@ -8571,7 +8572,7 @@
         <v>19</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57:L88" si="30">INDEX($I:$I,D57)</f>
+        <f t="shared" ref="L57:L58" si="30">INDEX($I:$I,D57)</f>
         <v>0</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -8634,7 +8635,7 @@
         <v>20</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59:L90" si="31">INDEX($G:$G,D59)</f>
+        <f t="shared" ref="L59" si="31">INDEX($G:$G,D59)</f>
         <v>633606293.63846266</v>
       </c>
       <c r="N59" s="2">
@@ -8652,7 +8653,7 @@
         <v>20</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60:L91" si="32">INDEX($I:$I,D60)</f>
+        <f t="shared" ref="L60:L61" si="32">INDEX($I:$I,D60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -8703,7 +8704,7 @@
         <v>21</v>
       </c>
       <c r="L62">
-        <f t="shared" ref="L62:L93" si="33">INDEX($G:$G,D62)</f>
+        <f t="shared" ref="L62" si="33">INDEX($G:$G,D62)</f>
         <v>29844738.66663108</v>
       </c>
       <c r="N62" s="2">
@@ -8721,7 +8722,7 @@
         <v>21</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L94" si="34">INDEX($I:$I,D63)</f>
+        <f t="shared" ref="L63:L64" si="34">INDEX($I:$I,D63)</f>
         <v>0</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8772,7 +8773,7 @@
         <v>22</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L96" si="35">INDEX($G:$G,D65)</f>
+        <f t="shared" ref="L65" si="35">INDEX($G:$G,D65)</f>
         <v>10675028.429321242</v>
       </c>
       <c r="N65" s="2">
@@ -8790,7 +8791,7 @@
         <v>22</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L97" si="36">INDEX($I:$I,D66)</f>
+        <f t="shared" ref="L66:L67" si="36">INDEX($I:$I,D66)</f>
         <v>0</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -8841,7 +8842,7 @@
         <v>23</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L99" si="37">INDEX($G:$G,D68)</f>
+        <f t="shared" ref="L68" si="37">INDEX($G:$G,D68)</f>
         <v>11062986.1256807</v>
       </c>
       <c r="N68" s="2">
@@ -8859,7 +8860,7 @@
         <v>23</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L100" si="38">INDEX($I:$I,D69)</f>
+        <f t="shared" ref="L69:L70" si="38">INDEX($I:$I,D69)</f>
         <v>0</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -8910,7 +8911,7 @@
         <v>24</v>
       </c>
       <c r="L71">
-        <f t="shared" ref="L71:L102" si="39">INDEX($G:$G,D71)</f>
+        <f t="shared" ref="L71" si="39">INDEX($G:$G,D71)</f>
         <v>391388759.74775177</v>
       </c>
       <c r="N71" s="2">
@@ -8928,7 +8929,7 @@
         <v>24</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L103" si="40">INDEX($I:$I,D72)</f>
+        <f t="shared" ref="L72:L73" si="40">INDEX($I:$I,D72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -8979,7 +8980,7 @@
         <v>25</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L105" si="41">INDEX($G:$G,D74)</f>
+        <f t="shared" ref="L74" si="41">INDEX($G:$G,D74)</f>
         <v>411178.70350342226</v>
       </c>
       <c r="N74" s="2">
@@ -8997,7 +8998,7 @@
         <v>25</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L106" si="42">INDEX($I:$I,D75)</f>
+        <f t="shared" ref="L75:L76" si="42">INDEX($I:$I,D75)</f>
         <v>0</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9048,7 +9049,7 @@
         <v>26</v>
       </c>
       <c r="L77">
-        <f t="shared" ref="L77:L108" si="43">INDEX($G:$G,D77)</f>
+        <f t="shared" ref="L77" si="43">INDEX($G:$G,D77)</f>
         <v>15423797.141123557</v>
       </c>
       <c r="N77" s="2">
@@ -9066,7 +9067,7 @@
         <v>26</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L109" si="44">INDEX($I:$I,D78)</f>
+        <f t="shared" ref="L78:L79" si="44">INDEX($I:$I,D78)</f>
         <v>0</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -9117,7 +9118,7 @@
         <v>27</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L111" si="45">INDEX($G:$G,D80)</f>
+        <f t="shared" ref="L80" si="45">INDEX($G:$G,D80)</f>
         <v>20380231.170149904</v>
       </c>
       <c r="N80" s="2">
@@ -9135,7 +9136,7 @@
         <v>27</v>
       </c>
       <c r="L81">
-        <f t="shared" ref="L81:L112" si="46">INDEX($I:$I,D81)</f>
+        <f t="shared" ref="L81:L82" si="46">INDEX($I:$I,D81)</f>
         <v>0</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -9186,7 +9187,7 @@
         <v>28</v>
       </c>
       <c r="L83">
-        <f t="shared" ref="L83:L114" si="47">INDEX($G:$G,D83)</f>
+        <f t="shared" ref="L83" si="47">INDEX($G:$G,D83)</f>
         <v>272472.84604319301</v>
       </c>
       <c r="N83" s="2">
@@ -9204,7 +9205,7 @@
         <v>28</v>
       </c>
       <c r="L84">
-        <f t="shared" ref="L84:L115" si="48">INDEX($I:$I,D84)</f>
+        <f t="shared" ref="L84:L85" si="48">INDEX($I:$I,D84)</f>
         <v>0</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -9255,7 +9256,7 @@
         <v>29</v>
       </c>
       <c r="L86">
-        <f t="shared" ref="L86:L117" si="49">INDEX($G:$G,D86)</f>
+        <f t="shared" ref="L86" si="49">INDEX($G:$G,D86)</f>
         <v>3281333.8099796101</v>
       </c>
       <c r="N86" s="2">
@@ -9273,7 +9274,7 @@
         <v>29</v>
       </c>
       <c r="L87">
-        <f t="shared" ref="L87:L118" si="50">INDEX($I:$I,D87)</f>
+        <f t="shared" ref="L87:L88" si="50">INDEX($I:$I,D87)</f>
         <v>0</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -9324,7 +9325,7 @@
         <v>30</v>
       </c>
       <c r="L89">
-        <f t="shared" ref="L89:L120" si="51">INDEX($G:$G,D89)</f>
+        <f t="shared" ref="L89" si="51">INDEX($G:$G,D89)</f>
         <v>20071.65300595844</v>
       </c>
       <c r="N89" s="2">
@@ -9342,7 +9343,7 @@
         <v>30</v>
       </c>
       <c r="L90">
-        <f t="shared" ref="L90:L121" si="52">INDEX($I:$I,D90)</f>
+        <f t="shared" ref="L90:L91" si="52">INDEX($I:$I,D90)</f>
         <v>0</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -9393,7 +9394,7 @@
         <v>31</v>
       </c>
       <c r="L92">
-        <f t="shared" ref="L92:L123" si="53">INDEX($G:$G,D92)</f>
+        <f t="shared" ref="L92" si="53">INDEX($G:$G,D92)</f>
         <v>59275867.028648287</v>
       </c>
       <c r="N92" s="2">
@@ -9411,7 +9412,7 @@
         <v>31</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L124" si="54">INDEX($I:$I,D93)</f>
+        <f t="shared" ref="L93:L94" si="54">INDEX($I:$I,D93)</f>
         <v>0</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9462,7 +9463,7 @@
         <v>32</v>
       </c>
       <c r="L95">
-        <f t="shared" ref="L95:L126" si="55">INDEX($G:$G,D95)</f>
+        <f t="shared" ref="L95" si="55">INDEX($G:$G,D95)</f>
         <v>16938678.306430295</v>
       </c>
       <c r="N95" s="2">
@@ -9480,7 +9481,7 @@
         <v>32</v>
       </c>
       <c r="L96">
-        <f t="shared" ref="L96:L127" si="56">INDEX($I:$I,D96)</f>
+        <f t="shared" ref="L96:L97" si="56">INDEX($I:$I,D96)</f>
         <v>0</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9531,7 +9532,7 @@
         <v>33</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:L129" si="57">INDEX($G:$G,D98)</f>
+        <f t="shared" ref="L98" si="57">INDEX($G:$G,D98)</f>
         <v>1.1276041082157717</v>
       </c>
       <c r="N98" s="2">
@@ -9549,7 +9550,7 @@
         <v>33</v>
       </c>
       <c r="L99">
-        <f t="shared" ref="L99:L130" si="58">INDEX($I:$I,D99)</f>
+        <f t="shared" ref="L99:L100" si="58">INDEX($I:$I,D99)</f>
         <v>0</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9600,7 +9601,7 @@
         <v>34</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L101:L132" si="59">INDEX($G:$G,D101)</f>
+        <f t="shared" ref="L101" si="59">INDEX($G:$G,D101)</f>
         <v>157540.41870779629</v>
       </c>
       <c r="N101" s="2">
@@ -9618,7 +9619,7 @@
         <v>34</v>
       </c>
       <c r="L102">
-        <f t="shared" ref="L102:L133" si="60">INDEX($I:$I,D102)</f>
+        <f t="shared" ref="L102:L103" si="60">INDEX($I:$I,D102)</f>
         <v>0</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9669,7 +9670,7 @@
         <v>35</v>
       </c>
       <c r="L104">
-        <f t="shared" ref="L104:L135" si="61">INDEX($G:$G,D104)</f>
+        <f t="shared" ref="L104" si="61">INDEX($G:$G,D104)</f>
         <v>157167.56986944444</v>
       </c>
       <c r="N104" s="2">
@@ -9687,7 +9688,7 @@
         <v>35</v>
       </c>
       <c r="L105">
-        <f t="shared" ref="L105:L136" si="62">INDEX($I:$I,D105)</f>
+        <f t="shared" ref="L105:L106" si="62">INDEX($I:$I,D105)</f>
         <v>0</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9738,7 +9739,7 @@
         <v>36</v>
       </c>
       <c r="L107">
-        <f t="shared" ref="L107:L138" si="63">INDEX($G:$G,D107)</f>
+        <f t="shared" ref="L107" si="63">INDEX($G:$G,D107)</f>
         <v>79237.919503760859</v>
       </c>
       <c r="N107" s="2">
@@ -9756,7 +9757,7 @@
         <v>36</v>
       </c>
       <c r="L108">
-        <f t="shared" ref="L108:L139" si="64">INDEX($I:$I,D108)</f>
+        <f t="shared" ref="L108:L109" si="64">INDEX($I:$I,D108)</f>
         <v>0</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9807,7 +9808,7 @@
         <v>37</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L141" si="65">INDEX($G:$G,D110)</f>
+        <f t="shared" ref="L110" si="65">INDEX($G:$G,D110)</f>
         <v>1522212.2648550284</v>
       </c>
       <c r="N110" s="2">
@@ -9825,7 +9826,7 @@
         <v>37</v>
       </c>
       <c r="L111">
-        <f t="shared" ref="L111:L142" si="66">INDEX($I:$I,D111)</f>
+        <f t="shared" ref="L111:L112" si="66">INDEX($I:$I,D111)</f>
         <v>0</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9876,7 +9877,7 @@
         <v>38</v>
       </c>
       <c r="L113">
-        <f t="shared" ref="L113:L144" si="67">INDEX($G:$G,D113)</f>
+        <f t="shared" ref="L113" si="67">INDEX($G:$G,D113)</f>
         <v>37766.532901063983</v>
       </c>
       <c r="N113" s="2">
@@ -9894,7 +9895,7 @@
         <v>38</v>
       </c>
       <c r="L114">
-        <f t="shared" ref="L114:L145" si="68">INDEX($I:$I,D114)</f>
+        <f t="shared" ref="L114:L115" si="68">INDEX($I:$I,D114)</f>
         <v>0</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9945,7 +9946,7 @@
         <v>39</v>
       </c>
       <c r="L116">
-        <f t="shared" ref="L116:L147" si="69">INDEX($G:$G,D116)</f>
+        <f t="shared" ref="L116" si="69">INDEX($G:$G,D116)</f>
         <v>381107173.49912465</v>
       </c>
       <c r="N116" s="2">
@@ -9963,7 +9964,7 @@
         <v>39</v>
       </c>
       <c r="L117">
-        <f t="shared" ref="L117:L148" si="70">INDEX($I:$I,D117)</f>
+        <f t="shared" ref="L117:L118" si="70">INDEX($I:$I,D117)</f>
         <v>0</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10014,7 +10015,7 @@
         <v>40</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L150" si="71">INDEX($G:$G,D119)</f>
+        <f t="shared" ref="L119" si="71">INDEX($G:$G,D119)</f>
         <v>496977880.7140097</v>
       </c>
       <c r="N119" s="2">
@@ -10032,7 +10033,7 @@
         <v>40</v>
       </c>
       <c r="L120">
-        <f t="shared" ref="L120:L151" si="72">INDEX($I:$I,D120)</f>
+        <f t="shared" ref="L120:L121" si="72">INDEX($I:$I,D120)</f>
         <v>0</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10083,7 +10084,7 @@
         <v>41</v>
       </c>
       <c r="L122">
-        <f t="shared" ref="L122:L153" si="73">INDEX($G:$G,D122)</f>
+        <f t="shared" ref="L122" si="73">INDEX($G:$G,D122)</f>
         <v>270580045.06376863</v>
       </c>
       <c r="N122" s="2">
@@ -10101,7 +10102,7 @@
         <v>41</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123:L154" si="74">INDEX($I:$I,D123)</f>
+        <f t="shared" ref="L123:L124" si="74">INDEX($I:$I,D123)</f>
         <v>0</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -10152,7 +10153,7 @@
         <v>42</v>
       </c>
       <c r="L125">
-        <f t="shared" ref="L125:L156" si="75">INDEX($G:$G,D125)</f>
+        <f t="shared" ref="L125" si="75">INDEX($G:$G,D125)</f>
         <v>408760876.18561435</v>
       </c>
       <c r="N125" s="2">
@@ -10170,7 +10171,7 @@
         <v>42</v>
       </c>
       <c r="L126">
-        <f t="shared" ref="L126:L157" si="76">INDEX($I:$I,D126)</f>
+        <f t="shared" ref="L126:L127" si="76">INDEX($I:$I,D126)</f>
         <v>0</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10221,7 +10222,7 @@
         <v>43</v>
       </c>
       <c r="L128">
-        <f t="shared" ref="L128:L159" si="77">INDEX($G:$G,D128)</f>
+        <f t="shared" ref="L128" si="77">INDEX($G:$G,D128)</f>
         <v>4414082.344630939</v>
       </c>
       <c r="N128" s="2">
@@ -10239,7 +10240,7 @@
         <v>43</v>
       </c>
       <c r="L129">
-        <f t="shared" ref="L129:L160" si="78">INDEX($I:$I,D129)</f>
+        <f t="shared" ref="L129:L130" si="78">INDEX($I:$I,D129)</f>
         <v>0</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -10290,7 +10291,7 @@
         <v>44</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L177" si="79">INDEX($G:$G,D131)</f>
+        <f t="shared" ref="L131" si="79">INDEX($G:$G,D131)</f>
         <v>133896.54971485393</v>
       </c>
       <c r="N131" s="2">
@@ -10308,7 +10309,7 @@
         <v>44</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L177" si="80">INDEX($I:$I,D132)</f>
+        <f t="shared" ref="L132:L133" si="80">INDEX($I:$I,D132)</f>
         <v>0</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -10359,7 +10360,7 @@
         <v>45</v>
       </c>
       <c r="L134">
-        <f t="shared" ref="L134:L177" si="81">INDEX($G:$G,D134)</f>
+        <f t="shared" ref="L134" si="81">INDEX($G:$G,D134)</f>
         <v>31702.221399054197</v>
       </c>
       <c r="N134" s="2">
@@ -10377,7 +10378,7 @@
         <v>45</v>
       </c>
       <c r="L135">
-        <f t="shared" ref="L135:L177" si="82">INDEX($I:$I,D135)</f>
+        <f t="shared" ref="L135:L136" si="82">INDEX($I:$I,D135)</f>
         <v>0</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10428,7 +10429,7 @@
         <v>46</v>
       </c>
       <c r="L137">
-        <f t="shared" ref="L137:L177" si="83">INDEX($G:$G,D137)</f>
+        <f t="shared" ref="L137" si="83">INDEX($G:$G,D137)</f>
         <v>12146.386311276859</v>
       </c>
       <c r="N137" s="2">
@@ -10446,7 +10447,7 @@
         <v>46</v>
       </c>
       <c r="L138">
-        <f t="shared" ref="L138:L177" si="84">INDEX($I:$I,D138)</f>
+        <f t="shared" ref="L138:L139" si="84">INDEX($I:$I,D138)</f>
         <v>0</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10497,7 +10498,7 @@
         <v>47</v>
       </c>
       <c r="L140">
-        <f t="shared" ref="L140:L177" si="85">INDEX($G:$G,D140)</f>
+        <f t="shared" ref="L140" si="85">INDEX($G:$G,D140)</f>
         <v>4224.5444986427019</v>
       </c>
       <c r="N140" s="2">
@@ -10515,7 +10516,7 @@
         <v>47</v>
       </c>
       <c r="L141">
-        <f t="shared" ref="L141:L177" si="86">INDEX($I:$I,D141)</f>
+        <f t="shared" ref="L141:L142" si="86">INDEX($I:$I,D141)</f>
         <v>0</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10566,7 +10567,7 @@
         <v>48</v>
       </c>
       <c r="L143">
-        <f t="shared" ref="L143:L177" si="87">INDEX($G:$G,D143)</f>
+        <f t="shared" ref="L143" si="87">INDEX($G:$G,D143)</f>
         <v>4360.2526619632908</v>
       </c>
       <c r="N143" s="2">
@@ -10584,7 +10585,7 @@
         <v>48</v>
       </c>
       <c r="L144">
-        <f t="shared" ref="L144:L177" si="88">INDEX($I:$I,D144)</f>
+        <f t="shared" ref="L144:L145" si="88">INDEX($I:$I,D144)</f>
         <v>0</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10635,7 +10636,7 @@
         <v>49</v>
       </c>
       <c r="L146">
-        <f t="shared" ref="L146:L177" si="89">INDEX($G:$G,D146)</f>
+        <f t="shared" ref="L146" si="89">INDEX($G:$G,D146)</f>
         <v>331241769.02721441</v>
       </c>
       <c r="N146" s="2">
@@ -10653,7 +10654,7 @@
         <v>49</v>
       </c>
       <c r="L147">
-        <f t="shared" ref="L147:L177" si="90">INDEX($I:$I,D147)</f>
+        <f t="shared" ref="L147:L148" si="90">INDEX($I:$I,D147)</f>
         <v>0</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10704,7 +10705,7 @@
         <v>50</v>
       </c>
       <c r="L149">
-        <f t="shared" ref="L149:L177" si="91">INDEX($G:$G,D149)</f>
+        <f t="shared" ref="L149" si="91">INDEX($G:$G,D149)</f>
         <v>33661374.482821837</v>
       </c>
       <c r="N149" s="2">
@@ -10722,7 +10723,7 @@
         <v>50</v>
       </c>
       <c r="L150">
-        <f t="shared" ref="L150:L177" si="92">INDEX($I:$I,D150)</f>
+        <f t="shared" ref="L150:L151" si="92">INDEX($I:$I,D150)</f>
         <v>0</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10773,7 +10774,7 @@
         <v>51</v>
       </c>
       <c r="L152">
-        <f t="shared" ref="L152:L177" si="93">INDEX($G:$G,D152)</f>
+        <f t="shared" ref="L152" si="93">INDEX($G:$G,D152)</f>
         <v>5575645.555691408</v>
       </c>
       <c r="N152" s="2">
@@ -10791,7 +10792,7 @@
         <v>51</v>
       </c>
       <c r="L153">
-        <f t="shared" ref="L153:L177" si="94">INDEX($I:$I,D153)</f>
+        <f t="shared" ref="L153:L154" si="94">INDEX($I:$I,D153)</f>
         <v>0</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10842,7 +10843,7 @@
         <v>52</v>
       </c>
       <c r="L155">
-        <f t="shared" ref="L155:L177" si="95">INDEX($G:$G,D155)</f>
+        <f t="shared" ref="L155" si="95">INDEX($G:$G,D155)</f>
         <v>7559790.6497449838</v>
       </c>
       <c r="N155" s="2">
@@ -10860,7 +10861,7 @@
         <v>52</v>
       </c>
       <c r="L156">
-        <f t="shared" ref="L156:L177" si="96">INDEX($I:$I,D156)</f>
+        <f t="shared" ref="L156:L157" si="96">INDEX($I:$I,D156)</f>
         <v>0</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10911,7 +10912,7 @@
         <v>53</v>
       </c>
       <c r="L158">
-        <f t="shared" ref="L158:L177" si="97">INDEX($G:$G,D158)</f>
+        <f t="shared" ref="L158" si="97">INDEX($G:$G,D158)</f>
         <v>66288.324982542515</v>
       </c>
       <c r="N158" s="2">
@@ -10929,7 +10930,7 @@
         <v>53</v>
       </c>
       <c r="L159">
-        <f t="shared" ref="L159:L177" si="98">INDEX($I:$I,D159)</f>
+        <f t="shared" ref="L159:L160" si="98">INDEX($I:$I,D159)</f>
         <v>0</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10980,7 +10981,7 @@
         <v>54</v>
       </c>
       <c r="L161">
-        <f t="shared" ref="L161:L177" si="99">INDEX($G:$G,D161)</f>
+        <f t="shared" ref="L161" si="99">INDEX($G:$G,D161)</f>
         <v>229.38496818568476</v>
       </c>
       <c r="N161" s="2">
@@ -10998,7 +10999,7 @@
         <v>54</v>
       </c>
       <c r="L162">
-        <f t="shared" ref="L162:L177" si="100">INDEX($I:$I,D162)</f>
+        <f t="shared" ref="L162:L163" si="100">INDEX($I:$I,D162)</f>
         <v>0</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11049,7 +11050,7 @@
         <v>55</v>
       </c>
       <c r="L164">
-        <f t="shared" ref="L164:L177" si="101">INDEX($G:$G,D164)</f>
+        <f t="shared" ref="L164" si="101">INDEX($G:$G,D164)</f>
         <v>13.230155899473553</v>
       </c>
       <c r="N164" s="2">
@@ -11067,7 +11068,7 @@
         <v>55</v>
       </c>
       <c r="L165">
-        <f t="shared" ref="L165:L177" si="102">INDEX($I:$I,D165)</f>
+        <f t="shared" ref="L165:L166" si="102">INDEX($I:$I,D165)</f>
         <v>0</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11118,7 +11119,7 @@
         <v>56</v>
       </c>
       <c r="L167">
-        <f t="shared" ref="L167:L177" si="103">INDEX($G:$G,D167)</f>
+        <f t="shared" ref="L167" si="103">INDEX($G:$G,D167)</f>
         <v>64.707243671771749</v>
       </c>
       <c r="N167" s="2">
@@ -11136,7 +11137,7 @@
         <v>56</v>
       </c>
       <c r="L168">
-        <f t="shared" ref="L168:L177" si="104">INDEX($I:$I,D168)</f>
+        <f t="shared" ref="L168:L169" si="104">INDEX($I:$I,D168)</f>
         <v>0</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11187,7 +11188,7 @@
         <v>57</v>
       </c>
       <c r="L170">
-        <f t="shared" ref="L170:L177" si="105">INDEX($G:$G,D170)</f>
+        <f t="shared" ref="L170" si="105">INDEX($G:$G,D170)</f>
         <v>2434.8039578541598</v>
       </c>
       <c r="N170" s="2">
@@ -11205,7 +11206,7 @@
         <v>57</v>
       </c>
       <c r="L171">
-        <f t="shared" ref="L171:L177" si="106">INDEX($I:$I,D171)</f>
+        <f t="shared" ref="L171:L172" si="106">INDEX($I:$I,D171)</f>
         <v>0</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -11256,7 +11257,7 @@
         <v>58</v>
       </c>
       <c r="L173">
-        <f t="shared" ref="L173:L177" si="107">INDEX($G:$G,D173)</f>
+        <f t="shared" ref="L173" si="107">INDEX($G:$G,D173)</f>
         <v>27.310408736925567</v>
       </c>
       <c r="N173" s="2">
@@ -11274,7 +11275,7 @@
         <v>58</v>
       </c>
       <c r="L174">
-        <f t="shared" ref="L174:L177" si="108">INDEX($I:$I,D174)</f>
+        <f t="shared" ref="L174:L175" si="108">INDEX($I:$I,D174)</f>
         <v>0</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11325,7 +11326,7 @@
         <v>59</v>
       </c>
       <c r="L176">
-        <f t="shared" ref="L176:L177" si="109">INDEX($G:$G,D176)</f>
+        <f t="shared" ref="L176" si="109">INDEX($G:$G,D176)</f>
         <v>1738621.1995896285</v>
       </c>
       <c r="N176" s="2">
@@ -11371,8 +11372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="Q156" sqref="Q156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16374,6 +16375,4107 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX($G:G,A1)</f>
+        <v>KDENR_MAK</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.929584443781863</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9016345.8038576506</v>
+      </c>
+      <c r="J2">
+        <f>INDEX($G:$G,A2)*(INDEX($E:$E,A2))</f>
+        <v>8381454.7990239486</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8381454.7990239486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" t="str">
+        <f>INDEX($G:$G,A3)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>INDEX($G:G,A4)</f>
+        <v>KDENR_HER</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.99202701183008801</v>
+      </c>
+      <c r="G5" s="2">
+        <v>628498067.07562959</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:L36" si="0">INDEX($G:$G,A5)*(INDEX($E:$E,A5))</f>
+        <v>623487059.42202306</v>
+      </c>
+      <c r="L5" s="2">
+        <v>623487059.42202306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:L37" si="1">INDEX($G:$G,A6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f>INDEX($G:G,A7)</f>
+        <v>KDENR_WHK</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>0.98210052689409899</v>
+      </c>
+      <c r="G8" s="2">
+        <v>55620591.596091352</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:L39" si="2">INDEX($G:$G,A8)*(INDEX($E:$E,A8))</f>
+        <v>54625012.312682815</v>
+      </c>
+      <c r="L8" s="2">
+        <v>54625012.312682815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:L40" si="3">INDEX($G:$G,A9)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="str">
+        <f>INDEX($G:G,A10)</f>
+        <v>KDENR_BLF</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0.74136893700720496</v>
+      </c>
+      <c r="G11" s="2">
+        <v>717531.4023330179</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:L42" si="4">INDEX($G:$G,A11)*(INDEX($E:$E,A11))</f>
+        <v>531955.49301691854</v>
+      </c>
+      <c r="L11" s="2">
+        <v>531955.49301691854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12:L43" si="5">INDEX($G:$G,A12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <f>INDEX($G:G,A13)</f>
+        <v>KDENR_WPF</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>0.75460090393050505</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8501185.1916870549</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:L45" si="6">INDEX($G:$G,A14)*(INDEX($E:$E,A14))</f>
+        <v>6415002.0301276753</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6415002.0301276753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15:L46" si="7">INDEX($G:$G,A15)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <f>INDEX($G:G,A16)</f>
+        <v>KDENR_SUF</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>0.28625045769660701</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18075758.592825942</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:L48" si="8">INDEX($G:$G,A17)*(INDEX($E:$E,A17))</f>
+        <v>5174194.1704098033</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5174194.1704098033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18:L49" si="9">INDEX($G:$G,A18)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <f>INDEX($G:G,A19)</f>
+        <v>KDENR_WIF</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>3.4393870419022997E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>129949506.65186316</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:L51" si="10">INDEX($G:$G,A20)*(INDEX($E:$E,A20))</f>
+        <v>4469466.4928001482</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4469466.4928001482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:L52" si="11">INDEX($G:$G,A21)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>INDEX($G:G,A22)</f>
+        <v>KDENR_WTF</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>0.68017827772252604</v>
+      </c>
+      <c r="G23" s="2">
+        <v>12979386.939282568</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:L54" si="12">INDEX($G:$G,A23)*(INDEX($E:$E,A23))</f>
+        <v>8828297.054255465</v>
+      </c>
+      <c r="L23" s="2">
+        <v>8828297.054255465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ref="J24:L55" si="13">INDEX($G:$G,A24)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>INDEX($G:G,A25)</f>
+        <v>KDENR_HAL</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0.23520744406406999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>64257.026343685262</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:L57" si="14">INDEX($G:$G,A26)*(INDEX($E:$E,A26))</f>
+        <v>15113.730929455824</v>
+      </c>
+      <c r="L26" s="2">
+        <v>15113.730929455824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27:L58" si="15">INDEX($G:$G,A27)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="str">
+        <f>INDEX($G:G,A28)</f>
+        <v>KDENR_PLA</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0.63451226038821595</v>
+      </c>
+      <c r="G29" s="2">
+        <v>15606092.371507009</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:L60" si="16">INDEX($G:$G,A29)*(INDEX($E:$E,A29))</f>
+        <v>9902256.9464722071</v>
+      </c>
+      <c r="L29" s="2">
+        <v>9902256.9464722071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:L61" si="17">INDEX($G:$G,A30)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="str">
+        <f>INDEX($G:G,A31)</f>
+        <v>KDENR_FOU</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>0.870728844652639</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7470713.3299367456</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:L63" si="18">INDEX($G:$G,A32)*(INDEX($E:$E,A32))</f>
+        <v>6504965.586506892</v>
+      </c>
+      <c r="L32" s="2">
+        <v>6504965.586506892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33:L64" si="19">INDEX($G:$G,A33)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="str">
+        <f>INDEX($G:G,A34)</f>
+        <v>KDENR_FLA</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>0.93511966940182301</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1003498.2708825993</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:L66" si="20">INDEX($G:$G,A35)*(INDEX($E:$E,A35))</f>
+        <v>938390.97131303733</v>
+      </c>
+      <c r="L35" s="2">
+        <v>938390.97131303733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36:L67" si="21">INDEX($G:$G,A36)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <f>INDEX($G:G,A37)</f>
+        <v>KDENR_BFT</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0.39990751871658797</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30111.372533171714</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:L69" si="22">INDEX($G:$G,A38)*(INDEX($E:$E,A38))</f>
+        <v>12041.76427489152</v>
+      </c>
+      <c r="L38" s="2">
+        <v>12041.76427489152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39:L70" si="23">INDEX($G:$G,A39)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="str">
+        <f>INDEX($G:G,A40)</f>
+        <v>KDENR_TUN</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>0.43120484843719598</v>
+      </c>
+      <c r="G41" s="2">
+        <v>381463.77119900385</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:L72" si="24">INDEX($G:$G,A41)*(INDEX($E:$E,A41))</f>
+        <v>164489.02764414766</v>
+      </c>
+      <c r="L41" s="2">
+        <v>164489.02764414766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42:L73" si="25">INDEX($G:$G,A42)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="str">
+        <f>INDEX($G:G,A43)</f>
+        <v>KDENR_BIL</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0.49691302607999499</v>
+      </c>
+      <c r="G44" s="2">
+        <v>14003.612613062383</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:L75" si="26">INDEX($G:$G,A44)*(INDEX($E:$E,A44))</f>
+        <v>6958.5775196088152</v>
+      </c>
+      <c r="L44" s="2">
+        <v>6958.5775196088152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45:L76" si="27">INDEX($G:$G,A45)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="str">
+        <f>INDEX($G:G,A46)</f>
+        <v>KDENR_MPF</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>1.08171298108243</v>
+      </c>
+      <c r="G47" s="2">
+        <v>705901.63557359751</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47:L78" si="28">INDEX($G:$G,A47)*(INDEX($E:$E,A47))</f>
+        <v>763582.96256727923</v>
+      </c>
+      <c r="L47" s="2">
+        <v>763582.96256727923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48:L79" si="29">INDEX($G:$G,A48)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <f>INDEX($G:G,A49)</f>
+        <v>KDENR_BUT</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50">
+        <v>0.50579998231941503</v>
+      </c>
+      <c r="G50" s="2">
+        <v>39668374.81521333</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:L81" si="30">INDEX($G:$G,A50)*(INDEX($E:$E,A50))</f>
+        <v>20064263.280174829</v>
+      </c>
+      <c r="L50" s="2">
+        <v>20064263.280174829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51:L82" si="31">INDEX($G:$G,A51)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <f>INDEX($G:G,A52)</f>
+        <v>KDENR_ANC</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>14.0267820137499</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7100269.013061828</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:L84" si="32">INDEX($G:$G,A53)*(INDEX($E:$E,A53))</f>
+        <v>99593925.685201406</v>
+      </c>
+      <c r="L53" s="2">
+        <v>99593925.685201406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" ref="J54:L85" si="33">INDEX($G:$G,A54)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="str">
+        <f>INDEX($G:G,A55)</f>
+        <v>KDENR_BPF</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>2.0410731525516101E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1446007267.4221833</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:L87" si="34">INDEX($G:$G,A56)*(INDEX($E:$E,A56))</f>
+        <v>29514066.119299348</v>
+      </c>
+      <c r="L56" s="2">
+        <v>29514066.119299348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57:L88" si="35">INDEX($G:$G,A57)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="str">
+        <f>INDEX($G:G,A58)</f>
+        <v>KDENR_GOO</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>0.97229208449412097</v>
+      </c>
+      <c r="G59" s="2">
+        <v>633606293.63846266</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:L90" si="36">INDEX($G:$G,A59)*(INDEX($E:$E,A59))</f>
+        <v>616050383.99033499</v>
+      </c>
+      <c r="L59" s="2">
+        <v>616050383.99033499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ref="J60:L91" si="37">INDEX($G:$G,A60)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <f>INDEX($G:G,A61)</f>
+        <v>KDENR_MEN</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>0.80219180875955198</v>
+      </c>
+      <c r="G62" s="2">
+        <v>29844738.66663108</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62:L93" si="38">INDEX($G:$G,A62)*(INDEX($E:$E,A62))</f>
+        <v>23941204.892940927</v>
+      </c>
+      <c r="L62" s="2">
+        <v>23941204.892940927</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" ref="J63:L94" si="39">INDEX($G:$G,A63)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="str">
+        <f>INDEX($G:G,A64)</f>
+        <v>KDENR_FDE</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65">
+        <v>0.29257066349231697</v>
+      </c>
+      <c r="G65" s="2">
+        <v>10675028.429321242</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65:L96" si="40">INDEX($G:$G,A65)*(INDEX($E:$E,A65))</f>
+        <v>3123200.1503658621</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3123200.1503658621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:L97" si="41">INDEX($G:$G,A66)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="str">
+        <f>INDEX($G:G,A67)</f>
+        <v>KDENR_COD</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>0.65966459013007295</v>
+      </c>
+      <c r="G68" s="2">
+        <v>11062986.1256807</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:L99" si="42">INDEX($G:$G,A68)*(INDEX($E:$E,A68))</f>
+        <v>7297860.2082118429</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7297860.2082118429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69:L100" si="43">INDEX($G:$G,A69)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="str">
+        <f>INDEX($G:G,A70)</f>
+        <v>KDENR_SHK</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71">
+        <v>0.93126988694423696</v>
+      </c>
+      <c r="G71" s="2">
+        <v>391388759.74775177</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:L102" si="44">INDEX($G:$G,A71)*(INDEX($E:$E,A71))</f>
+        <v>364488566.04153389</v>
+      </c>
+      <c r="L71" s="2">
+        <v>364488566.04153389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ref="J72:L103" si="45">INDEX($G:$G,A72)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="str">
+        <f>INDEX($G:G,A73)</f>
+        <v>KDENR_OHK</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>0.76358466958378102</v>
+      </c>
+      <c r="G74" s="2">
+        <v>411178.70350342226</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74:L105" si="46">INDEX($G:$G,A74)*(INDEX($E:$E,A74))</f>
+        <v>313969.75445454818</v>
+      </c>
+      <c r="L74" s="2">
+        <v>313969.75445454818</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" ref="J75:L106" si="47">INDEX($G:$G,A75)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="str">
+        <f>INDEX($G:G,A76)</f>
+        <v>KDENR_POL</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77">
+        <v>0.50774494607542997</v>
+      </c>
+      <c r="G77" s="2">
+        <v>15423797.141123557</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:L108" si="48">INDEX($G:$G,A77)*(INDEX($E:$E,A77))</f>
+        <v>7831355.0476981513</v>
+      </c>
+      <c r="L77" s="2">
+        <v>7831355.0476981513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" ref="J78:L109" si="49">INDEX($G:$G,A78)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <f>INDEX($G:G,A79)</f>
+        <v>KDENR_RHK</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <v>0.60334989086855595</v>
+      </c>
+      <c r="G80" s="2">
+        <v>20380231.170149904</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:L111" si="50">INDEX($G:$G,A80)*(INDEX($E:$E,A80))</f>
+        <v>12296410.252385886</v>
+      </c>
+      <c r="L80" s="2">
+        <v>12296410.252385886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ref="J81:L112" si="51">INDEX($G:$G,A81)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="str">
+        <f>INDEX($G:G,A82)</f>
+        <v>KDENR_BSB</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>0.467848838290224</v>
+      </c>
+      <c r="G83" s="2">
+        <v>272472.84604319301</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83:L114" si="52">INDEX($G:$G,A83)*(INDEX($E:$E,A83))</f>
+        <v>127476.10448693892</v>
+      </c>
+      <c r="L83" s="2">
+        <v>127476.10448693892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" ref="J84:L115" si="53">INDEX($G:$G,A84)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="str">
+        <f>INDEX($G:G,A85)</f>
+        <v>KDENR_SCU</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86">
+        <v>0.84462463138297394</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3281333.8099796101</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86:L117" si="54">INDEX($G:$G,A86)*(INDEX($E:$E,A86))</f>
+        <v>2771495.3596985177</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2771495.3596985177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ref="J87:L118" si="55">INDEX($G:$G,A87)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="str">
+        <f>INDEX($G:G,A88)</f>
+        <v>KDENR_TYL</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89">
+        <v>0.89426664762240704</v>
+      </c>
+      <c r="G89" s="2">
+        <v>20071.65300595844</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ref="J89:L120" si="56">INDEX($G:$G,A89)*(INDEX($E:$E,A89))</f>
+        <v>17949.409845878665</v>
+      </c>
+      <c r="L89" s="2">
+        <v>17949.409845878665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" ref="J90:L121" si="57">INDEX($G:$G,A90)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <f>INDEX($G:G,A91)</f>
+        <v>KDENR_RED</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>0.96885353092487503</v>
+      </c>
+      <c r="G92" s="2">
+        <v>59275867.028648287</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:L123" si="58">INDEX($G:$G,A92)*(INDEX($E:$E,A92))</f>
+        <v>57429633.069339275</v>
+      </c>
+      <c r="L92" s="2">
+        <v>57429633.069339275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" ref="J93:L124" si="59">INDEX($G:$G,A93)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="str">
+        <f>INDEX($G:G,A94)</f>
+        <v>KDENR_OPT</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95">
+        <v>0.55959481376209896</v>
+      </c>
+      <c r="G95" s="2">
+        <v>16938678.306430295</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95:L126" si="60">INDEX($G:$G,A95)*(INDEX($E:$E,A95))</f>
+        <v>9478796.532262966</v>
+      </c>
+      <c r="L95" s="2">
+        <v>9478796.532262966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" ref="J96:L127" si="61">INDEX($G:$G,A96)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="str">
+        <f>INDEX($G:G,A97)</f>
+        <v>KDENR_SAL</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>5.01492747546919E-2</v>
+      </c>
+      <c r="G98">
+        <v>10267</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98:L129" si="62">INDEX($G:$G,A98)*(INDEX($E:$E,A98))</f>
+        <v>514.88260390642176</v>
+      </c>
+      <c r="L98" s="2">
+        <v>514.88260390642176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" ref="J99:L130" si="63">INDEX($G:$G,A99)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <f>INDEX($G:G,A100)</f>
+        <v>KDENR_DRM</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>0.50010644569096996</v>
+      </c>
+      <c r="G101" s="2">
+        <v>157540.41870779629</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101:L132" si="64">INDEX($G:$G,A101)*(INDEX($E:$E,A101))</f>
+        <v>78786.978852623186</v>
+      </c>
+      <c r="L101" s="2">
+        <v>78786.978852623186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" ref="J102:L133" si="65">INDEX($G:$G,A102)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <f>INDEX($G:G,A103)</f>
+        <v>KDENR_STB</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>0.70665872159157095</v>
+      </c>
+      <c r="G104" s="2">
+        <v>157167.56986944444</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104:L135" si="66">INDEX($G:$G,A104)*(INDEX($E:$E,A104))</f>
+        <v>111063.83399959552</v>
+      </c>
+      <c r="L104" s="2">
+        <v>111063.83399959552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>35</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" ref="J105:L136" si="67">INDEX($G:$G,A105)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>35</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="str">
+        <f>INDEX($G:G,A106)</f>
+        <v>KDENR_TAU</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>0.88804470178045702</v>
+      </c>
+      <c r="G107" s="2">
+        <v>79237.919503760859</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ref="J107:L138" si="68">INDEX($G:$G,A107)*(INDEX($E:$E,A107))</f>
+        <v>70366.814595421165</v>
+      </c>
+      <c r="L107" s="2">
+        <v>70366.814595421165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" ref="J108:L139" si="69">INDEX($G:$G,A108)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="str">
+        <f>INDEX($G:G,A109)</f>
+        <v>KDENR_WOL</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110">
+        <v>0.65083909167894505</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1522212.2648550284</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110:L141" si="70">INDEX($G:$G,A110)*(INDEX($E:$E,A110))</f>
+        <v>990715.24780079641</v>
+      </c>
+      <c r="L110" s="2">
+        <v>990715.24780079641</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>37</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" ref="J111:L142" si="71">INDEX($G:$G,A111)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>37</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="str">
+        <f>INDEX($G:G,A112)</f>
+        <v>KDENR_SDF</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>38</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113">
+        <v>0.355605340246399</v>
+      </c>
+      <c r="G113" s="2">
+        <v>37766.532901063983</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ref="J113:L144" si="72">INDEX($G:$G,A113)*(INDEX($E:$E,A113))</f>
+        <v>13429.980782209681</v>
+      </c>
+      <c r="L113" s="2">
+        <v>13429.980782209681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" ref="J114:L145" si="73">INDEX($G:$G,A114)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <f>INDEX($G:G,A115)</f>
+        <v>KDENR_FDF</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>39</v>
+      </c>
+      <c r="C116">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116">
+        <v>0.46611514944020099</v>
+      </c>
+      <c r="G116" s="2">
+        <v>381107173.49912465</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ref="J116:L147" si="74">INDEX($G:$G,A116)*(INDEX($E:$E,A116))</f>
+        <v>177639827.12827709</v>
+      </c>
+      <c r="L116" s="2">
+        <v>177639827.12827709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>39</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" ref="J117:L148" si="75">INDEX($G:$G,A117)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="str">
+        <f>INDEX($G:G,A118)</f>
+        <v>KDENR_HAD</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119">
+        <v>0.20963601827644501</v>
+      </c>
+      <c r="G119" s="2">
+        <v>496977880.7140097</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ref="J119:L150" si="76">INDEX($G:$G,A119)*(INDEX($E:$E,A119))</f>
+        <v>104184464.08435105</v>
+      </c>
+      <c r="L119" s="2">
+        <v>104184464.08435105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" ref="J120:L151" si="77">INDEX($G:$G,A120)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="str">
+        <f>INDEX($G:G,A121)</f>
+        <v>KDENR_YTF</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>41</v>
+      </c>
+      <c r="C122">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122">
+        <v>0.78104069291293299</v>
+      </c>
+      <c r="G122" s="2">
+        <v>270580045.06376863</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J122:L153" si="78">INDEX($G:$G,A122)*(INDEX($E:$E,A122))</f>
+        <v>211334025.88501847</v>
+      </c>
+      <c r="L122" s="2">
+        <v>211334025.88501847</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" ref="J123:L154" si="79">INDEX($G:$G,A123)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="str">
+        <f>INDEX($G:G,A124)</f>
+        <v>KDENR_DOG</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125">
+        <v>0.31284918197888301</v>
+      </c>
+      <c r="G125" s="2">
+        <v>408760876.18561435</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ref="J125:L156" si="80">INDEX($G:$G,A125)*(INDEX($E:$E,A125))</f>
+        <v>127880505.73964092</v>
+      </c>
+      <c r="L125" s="2">
+        <v>127880505.73964092</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>42</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" ref="J126:L157" si="81">INDEX($G:$G,A126)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <f>INDEX($G:G,A127)</f>
+        <v>KDENR_SMO</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>43</v>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128">
+        <v>5.3665041900266601E-2</v>
+      </c>
+      <c r="G128" s="2">
+        <v>4414082.344630939</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ref="J128:L159" si="82">INDEX($G:$G,A128)*(INDEX($E:$E,A128))</f>
+        <v>236881.91397584637</v>
+      </c>
+      <c r="L128" s="2">
+        <v>236881.91397584637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" ref="J129:L160" si="83">INDEX($G:$G,A129)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="str">
+        <f>INDEX($G:G,A130)</f>
+        <v>KDENR_SSH</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>44</v>
+      </c>
+      <c r="C131">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131">
+        <v>8.31536010344405E-2</v>
+      </c>
+      <c r="G131" s="2">
+        <v>133896.54971485393</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:L177" si="84">INDEX($G:$G,A131)*(INDEX($E:$E,A131))</f>
+        <v>11133.980274877091</v>
+      </c>
+      <c r="L131" s="2">
+        <v>11133.980274877091</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>44</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" ref="J132:L177" si="85">INDEX($G:$G,A132)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>44</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="str">
+        <f>INDEX($G:G,A133)</f>
+        <v>KDENR_DSH</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>45</v>
+      </c>
+      <c r="C134">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134">
+        <v>1.00514195225172E-2</v>
+      </c>
+      <c r="G134" s="2">
+        <v>31702.221399054197</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ref="J134:L177" si="86">INDEX($G:$G,A134)*(INDEX($E:$E,A134))</f>
+        <v>318.65232707761589</v>
+      </c>
+      <c r="L134" s="2">
+        <v>318.65232707761589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" ref="J135:L177" si="87">INDEX($G:$G,A135)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="str">
+        <f>INDEX($G:G,A136)</f>
+        <v>KDENR_BLS</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>46</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>0.193278297494719</v>
+      </c>
+      <c r="G137" s="2">
+        <v>12146.386311276859</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ref="J137:L177" si="88">INDEX($G:$G,A137)*(INDEX($E:$E,A137))</f>
+        <v>2347.6328669567515</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2347.6328669567515</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>46</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" ref="J138:L177" si="89">INDEX($G:$G,A138)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>46</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="str">
+        <f>INDEX($G:G,A139)</f>
+        <v>KDENR_POR</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>47</v>
+      </c>
+      <c r="C140">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E140">
+        <v>0.17770270485554199</v>
+      </c>
+      <c r="G140" s="2">
+        <v>4224.5444986427019</v>
+      </c>
+      <c r="J140">
+        <f t="shared" ref="J140:L177" si="90">INDEX($G:$G,A140)*(INDEX($E:$E,A140))</f>
+        <v>750.7129841914076</v>
+      </c>
+      <c r="L140" s="2">
+        <v>750.7129841914076</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>47</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" ref="J141:L177" si="91">INDEX($G:$G,A141)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>47</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="str">
+        <f>INDEX($G:G,A142)</f>
+        <v>KDENR_PSH</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143">
+        <v>0.12584197667438801</v>
+      </c>
+      <c r="G143" s="2">
+        <v>4360.2526619632908</v>
+      </c>
+      <c r="J143">
+        <f t="shared" ref="J143:L177" si="92">INDEX($G:$G,A143)*(INDEX($E:$E,A143))</f>
+        <v>548.70281378122263</v>
+      </c>
+      <c r="L143" s="2">
+        <v>548.70281378122263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>48</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" ref="J144:L177" si="93">INDEX($G:$G,A144)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="str">
+        <f>INDEX($G:G,A145)</f>
+        <v>KDENR_WSK</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146">
+        <v>9.69843953502907E-2</v>
+      </c>
+      <c r="G146" s="2">
+        <v>331241769.02721441</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146:L177" si="94">INDEX($G:$G,A146)*(INDEX($E:$E,A146))</f>
+        <v>32125282.683865041</v>
+      </c>
+      <c r="L146" s="2">
+        <v>32125282.683865041</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>49</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" ref="J147:L177" si="95">INDEX($G:$G,A147)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>49</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="str">
+        <f>INDEX($G:G,A148)</f>
+        <v>KDENR_LSK</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>0.21465277265420801</v>
+      </c>
+      <c r="G149" s="2">
+        <v>33661374.482821837</v>
+      </c>
+      <c r="J149">
+        <f t="shared" ref="J149:L177" si="96">INDEX($G:$G,A149)*(INDEX($E:$E,A149))</f>
+        <v>7225507.3640893148</v>
+      </c>
+      <c r="L149" s="2">
+        <v>7225507.3640893148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" ref="J150:L177" si="97">INDEX($G:$G,A150)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="str">
+        <f>INDEX($G:G,A151)</f>
+        <v>KDENR_SK</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152">
+        <v>0.26867283415416499</v>
+      </c>
+      <c r="G152" s="2">
+        <v>5575645.555691408</v>
+      </c>
+      <c r="J152">
+        <f t="shared" ref="J152:L177" si="98">INDEX($G:$G,A152)*(INDEX($E:$E,A152))</f>
+        <v>1498024.4936866846</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1498024.4936866846</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>51</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" ref="J153:L177" si="99">INDEX($G:$G,A153)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="str">
+        <f>INDEX($G:G,A154)</f>
+        <v>KDENR_SB</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>52</v>
+      </c>
+      <c r="C155">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <v>0.97609380285243796</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7559790.6497449838</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155:L177" si="100">INDEX($G:$G,A155)*(INDEX($E:$E,A155))</f>
+        <v>7379064.8040778842</v>
+      </c>
+      <c r="L155" s="2">
+        <v>7379064.8040778842</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>52</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" ref="J156:L177" si="101">INDEX($G:$G,A156)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>52</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="str">
+        <f>INDEX($G:G,A157)</f>
+        <v>KDENR_PIN</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>53</v>
+      </c>
+      <c r="C158">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>76</v>
+      </c>
+      <c r="E158">
+        <v>0.94883523065256004</v>
+      </c>
+      <c r="G158" s="2">
+        <v>66288.324982542515</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ref="J158:L177" si="102">INDEX($G:$G,A158)*(INDEX($E:$E,A158))</f>
+        <v>62896.698124382587</v>
+      </c>
+      <c r="L158" s="2">
+        <v>62896.698124382587</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>53</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" ref="J159:L177" si="103">INDEX($G:$G,A159)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>53</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="str">
+        <f>INDEX($G:G,A160)</f>
+        <v>KDENR_REP</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>54</v>
+      </c>
+      <c r="C161">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161">
+        <v>0.86590919738962802</v>
+      </c>
+      <c r="G161" s="2">
+        <v>229.38496818568476</v>
+      </c>
+      <c r="J161">
+        <f t="shared" ref="J161:L177" si="104">INDEX($G:$G,A161)*(INDEX($E:$E,A161))</f>
+        <v>198.62655369491165</v>
+      </c>
+      <c r="L161" s="2">
+        <v>198.62655369491165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" ref="J162:L177" si="105">INDEX($G:$G,A162)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>54</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="str">
+        <f>INDEX($G:G,A163)</f>
+        <v>KDENR_RWH</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>55</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>84</v>
+      </c>
+      <c r="E164">
+        <v>0.86575302913263397</v>
+      </c>
+      <c r="G164" s="2">
+        <v>13.230155899473553</v>
+      </c>
+      <c r="J164">
+        <f t="shared" ref="J164:L177" si="106">INDEX($G:$G,A164)*(INDEX($E:$E,A164))</f>
+        <v>11.454047545866217</v>
+      </c>
+      <c r="L164" s="2">
+        <v>11.454047545866217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>55</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" ref="J165:L177" si="107">INDEX($G:$G,A165)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>55</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="str">
+        <f>INDEX($G:G,A166)</f>
+        <v>KDENR_BWH</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>56</v>
+      </c>
+      <c r="C167">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>0.84962709058925501</v>
+      </c>
+      <c r="G167" s="2">
+        <v>64.707243671771749</v>
+      </c>
+      <c r="J167">
+        <f t="shared" ref="J167:L177" si="108">INDEX($G:$G,A167)*(INDEX($E:$E,A167))</f>
+        <v>54.977027180897416</v>
+      </c>
+      <c r="L167" s="2">
+        <v>54.977027180897416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" ref="J168:L177" si="109">INDEX($G:$G,A168)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <f>INDEX($G:G,A169)</f>
+        <v>KDENR_SWH</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170">
+        <v>0.87904134379375598</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2434.8039578541598</v>
+      </c>
+      <c r="J170">
+        <f t="shared" ref="J170:L177" si="110">INDEX($G:$G,A170)*(INDEX($E:$E,A170))</f>
+        <v>2140.2933429864761</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2140.2933429864761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>57</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" ref="J171:L177" si="111">INDEX($G:$G,A171)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="str">
+        <f>INDEX($G:G,A172)</f>
+        <v>KDENR_TWH</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>58</v>
+      </c>
+      <c r="C173">
+        <v>58</v>
+      </c>
+      <c r="D173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E173">
+        <v>0.88797608880123102</v>
+      </c>
+      <c r="G173" s="2">
+        <v>27.310408736925567</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ref="J173:L177" si="112">INDEX($G:$G,A173)*(INDEX($E:$E,A173))</f>
+        <v>24.250989933778133</v>
+      </c>
+      <c r="L173" s="2">
+        <v>24.250989933778133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>58</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" ref="J174:L177" si="113">INDEX($G:$G,A174)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>58</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="str">
+        <f>INDEX($G:G,A175)</f>
+        <v>KDENR_INV</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>59</v>
+      </c>
+      <c r="C176">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176">
+        <v>0.306434080005066</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1738621.1995896285</v>
+      </c>
+      <c r="J176">
+        <f t="shared" ref="J176:L177" si="114">INDEX($G:$G,A176)*(INDEX($E:$E,A176))</f>
+        <v>532772.787773552</v>
+      </c>
+      <c r="L176" s="2">
+        <v>532772.787773552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>59</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" ref="J177:L177" si="115">INDEX($G:$G,A177)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:E177">
+    <sortCondition ref="B1:B177"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>

--- a/R/Init_nums_scalar_for_recruits.xlsx
+++ b/R/Init_nums_scalar_for_recruits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="vert_order" sheetId="3" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="format" sheetId="4" r:id="rId3"/>
     <sheet name="20190226" sheetId="5" r:id="rId4"/>
     <sheet name="20190301" sheetId="6" r:id="rId5"/>
-    <sheet name="codenames" sheetId="2" r:id="rId6"/>
+    <sheet name="20190422" sheetId="7" r:id="rId6"/>
+    <sheet name="codenames" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="449">
   <si>
     <t>species</t>
   </si>
@@ -2189,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
@@ -6919,7 +6920,7 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11373,7 +11374,7 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16378,8 +16379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16501,7 +16502,7 @@
         <v>628498067.07562959</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:L36" si="0">INDEX($G:$G,A5)*(INDEX($E:$E,A5))</f>
+        <f t="shared" ref="J5" si="0">INDEX($G:$G,A5)*(INDEX($E:$E,A5))</f>
         <v>623487059.42202306</v>
       </c>
       <c r="L5" s="2">
@@ -16519,7 +16520,7 @@
         <v>384</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ref="J6:L37" si="1">INDEX($G:$G,A6)</f>
+        <f t="shared" ref="J6" si="1">INDEX($G:$G,A6)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L6" s="2" t="s">
@@ -16570,7 +16571,7 @@
         <v>55620591.596091352</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:L39" si="2">INDEX($G:$G,A8)*(INDEX($E:$E,A8))</f>
+        <f t="shared" ref="J8" si="2">INDEX($G:$G,A8)*(INDEX($E:$E,A8))</f>
         <v>54625012.312682815</v>
       </c>
       <c r="L8" s="2">
@@ -16588,7 +16589,7 @@
         <v>384</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:L40" si="3">INDEX($G:$G,A9)</f>
+        <f t="shared" ref="J9" si="3">INDEX($G:$G,A9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L9" s="2" t="s">
@@ -16639,7 +16640,7 @@
         <v>717531.4023330179</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:L42" si="4">INDEX($G:$G,A11)*(INDEX($E:$E,A11))</f>
+        <f t="shared" ref="J11" si="4">INDEX($G:$G,A11)*(INDEX($E:$E,A11))</f>
         <v>531955.49301691854</v>
       </c>
       <c r="L11" s="2">
@@ -16657,7 +16658,7 @@
         <v>384</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:L43" si="5">INDEX($G:$G,A12)</f>
+        <f t="shared" ref="J12" si="5">INDEX($G:$G,A12)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L12" s="2" t="s">
@@ -16708,7 +16709,7 @@
         <v>8501185.1916870549</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:L45" si="6">INDEX($G:$G,A14)*(INDEX($E:$E,A14))</f>
+        <f t="shared" ref="J14" si="6">INDEX($G:$G,A14)*(INDEX($E:$E,A14))</f>
         <v>6415002.0301276753</v>
       </c>
       <c r="L14" s="2">
@@ -16726,7 +16727,7 @@
         <v>384</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:L46" si="7">INDEX($G:$G,A15)</f>
+        <f t="shared" ref="J15" si="7">INDEX($G:$G,A15)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L15" s="2" t="s">
@@ -16777,7 +16778,7 @@
         <v>18075758.592825942</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:L48" si="8">INDEX($G:$G,A17)*(INDEX($E:$E,A17))</f>
+        <f t="shared" ref="J17" si="8">INDEX($G:$G,A17)*(INDEX($E:$E,A17))</f>
         <v>5174194.1704098033</v>
       </c>
       <c r="L17" s="2">
@@ -16795,7 +16796,7 @@
         <v>384</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18:L49" si="9">INDEX($G:$G,A18)</f>
+        <f t="shared" ref="J18" si="9">INDEX($G:$G,A18)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L18" s="2" t="s">
@@ -16846,7 +16847,7 @@
         <v>129949506.65186316</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:L51" si="10">INDEX($G:$G,A20)*(INDEX($E:$E,A20))</f>
+        <f t="shared" ref="J20" si="10">INDEX($G:$G,A20)*(INDEX($E:$E,A20))</f>
         <v>4469466.4928001482</v>
       </c>
       <c r="L20" s="2">
@@ -16864,7 +16865,7 @@
         <v>384</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:L52" si="11">INDEX($G:$G,A21)</f>
+        <f t="shared" ref="J21" si="11">INDEX($G:$G,A21)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L21" s="2" t="s">
@@ -16915,7 +16916,7 @@
         <v>12979386.939282568</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:L54" si="12">INDEX($G:$G,A23)*(INDEX($E:$E,A23))</f>
+        <f t="shared" ref="J23" si="12">INDEX($G:$G,A23)*(INDEX($E:$E,A23))</f>
         <v>8828297.054255465</v>
       </c>
       <c r="L23" s="2">
@@ -16933,7 +16934,7 @@
         <v>384</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:L55" si="13">INDEX($G:$G,A24)</f>
+        <f t="shared" ref="J24" si="13">INDEX($G:$G,A24)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L24" s="2" t="s">
@@ -16984,7 +16985,7 @@
         <v>64257.026343685262</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:L57" si="14">INDEX($G:$G,A26)*(INDEX($E:$E,A26))</f>
+        <f t="shared" ref="J26" si="14">INDEX($G:$G,A26)*(INDEX($E:$E,A26))</f>
         <v>15113.730929455824</v>
       </c>
       <c r="L26" s="2">
@@ -17002,7 +17003,7 @@
         <v>384</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:L58" si="15">INDEX($G:$G,A27)</f>
+        <f t="shared" ref="J27" si="15">INDEX($G:$G,A27)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L27" s="2" t="s">
@@ -17053,7 +17054,7 @@
         <v>15606092.371507009</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:L60" si="16">INDEX($G:$G,A29)*(INDEX($E:$E,A29))</f>
+        <f t="shared" ref="J29" si="16">INDEX($G:$G,A29)*(INDEX($E:$E,A29))</f>
         <v>9902256.9464722071</v>
       </c>
       <c r="L29" s="2">
@@ -17071,7 +17072,7 @@
         <v>384</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30:L61" si="17">INDEX($G:$G,A30)</f>
+        <f t="shared" ref="J30" si="17">INDEX($G:$G,A30)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L30" s="2" t="s">
@@ -17122,7 +17123,7 @@
         <v>7470713.3299367456</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:L63" si="18">INDEX($G:$G,A32)*(INDEX($E:$E,A32))</f>
+        <f t="shared" ref="J32" si="18">INDEX($G:$G,A32)*(INDEX($E:$E,A32))</f>
         <v>6504965.586506892</v>
       </c>
       <c r="L32" s="2">
@@ -17140,7 +17141,7 @@
         <v>384</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33:L64" si="19">INDEX($G:$G,A33)</f>
+        <f t="shared" ref="J33" si="19">INDEX($G:$G,A33)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L33" s="2" t="s">
@@ -17191,7 +17192,7 @@
         <v>1003498.2708825993</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:L66" si="20">INDEX($G:$G,A35)*(INDEX($E:$E,A35))</f>
+        <f t="shared" ref="J35" si="20">INDEX($G:$G,A35)*(INDEX($E:$E,A35))</f>
         <v>938390.97131303733</v>
       </c>
       <c r="L35" s="2">
@@ -17209,7 +17210,7 @@
         <v>384</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" ref="J36:L67" si="21">INDEX($G:$G,A36)</f>
+        <f t="shared" ref="J36" si="21">INDEX($G:$G,A36)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L36" s="2" t="s">
@@ -17260,7 +17261,7 @@
         <v>30111.372533171714</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:L69" si="22">INDEX($G:$G,A38)*(INDEX($E:$E,A38))</f>
+        <f t="shared" ref="J38" si="22">INDEX($G:$G,A38)*(INDEX($E:$E,A38))</f>
         <v>12041.76427489152</v>
       </c>
       <c r="L38" s="2">
@@ -17278,7 +17279,7 @@
         <v>384</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ref="J39:L70" si="23">INDEX($G:$G,A39)</f>
+        <f t="shared" ref="J39" si="23">INDEX($G:$G,A39)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L39" s="2" t="s">
@@ -17329,7 +17330,7 @@
         <v>381463.77119900385</v>
       </c>
       <c r="J41">
-        <f t="shared" ref="J41:L72" si="24">INDEX($G:$G,A41)*(INDEX($E:$E,A41))</f>
+        <f t="shared" ref="J41" si="24">INDEX($G:$G,A41)*(INDEX($E:$E,A41))</f>
         <v>164489.02764414766</v>
       </c>
       <c r="L41" s="2">
@@ -17347,7 +17348,7 @@
         <v>384</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42:L73" si="25">INDEX($G:$G,A42)</f>
+        <f t="shared" ref="J42" si="25">INDEX($G:$G,A42)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L42" s="2" t="s">
@@ -17398,7 +17399,7 @@
         <v>14003.612613062383</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44:L75" si="26">INDEX($G:$G,A44)*(INDEX($E:$E,A44))</f>
+        <f t="shared" ref="J44" si="26">INDEX($G:$G,A44)*(INDEX($E:$E,A44))</f>
         <v>6958.5775196088152</v>
       </c>
       <c r="L44" s="2">
@@ -17416,7 +17417,7 @@
         <v>384</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45:L76" si="27">INDEX($G:$G,A45)</f>
+        <f t="shared" ref="J45" si="27">INDEX($G:$G,A45)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L45" s="2" t="s">
@@ -17467,7 +17468,7 @@
         <v>705901.63557359751</v>
       </c>
       <c r="J47">
-        <f t="shared" ref="J47:L78" si="28">INDEX($G:$G,A47)*(INDEX($E:$E,A47))</f>
+        <f t="shared" ref="J47" si="28">INDEX($G:$G,A47)*(INDEX($E:$E,A47))</f>
         <v>763582.96256727923</v>
       </c>
       <c r="L47" s="2">
@@ -17485,7 +17486,7 @@
         <v>384</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" ref="J48:L79" si="29">INDEX($G:$G,A48)</f>
+        <f t="shared" ref="J48" si="29">INDEX($G:$G,A48)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L48" s="2" t="s">
@@ -17536,7 +17537,7 @@
         <v>39668374.81521333</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:L81" si="30">INDEX($G:$G,A50)*(INDEX($E:$E,A50))</f>
+        <f t="shared" ref="J50" si="30">INDEX($G:$G,A50)*(INDEX($E:$E,A50))</f>
         <v>20064263.280174829</v>
       </c>
       <c r="L50" s="2">
@@ -17554,7 +17555,7 @@
         <v>384</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ref="J51:L82" si="31">INDEX($G:$G,A51)</f>
+        <f t="shared" ref="J51" si="31">INDEX($G:$G,A51)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L51" s="2" t="s">
@@ -17605,7 +17606,7 @@
         <v>7100269.013061828</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:L84" si="32">INDEX($G:$G,A53)*(INDEX($E:$E,A53))</f>
+        <f t="shared" ref="J53" si="32">INDEX($G:$G,A53)*(INDEX($E:$E,A53))</f>
         <v>99593925.685201406</v>
       </c>
       <c r="L53" s="2">
@@ -17623,7 +17624,7 @@
         <v>384</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" ref="J54:L85" si="33">INDEX($G:$G,A54)</f>
+        <f t="shared" ref="J54" si="33">INDEX($G:$G,A54)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L54" s="2" t="s">
@@ -17674,7 +17675,7 @@
         <v>1446007267.4221833</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J56:L87" si="34">INDEX($G:$G,A56)*(INDEX($E:$E,A56))</f>
+        <f t="shared" ref="J56" si="34">INDEX($G:$G,A56)*(INDEX($E:$E,A56))</f>
         <v>29514066.119299348</v>
       </c>
       <c r="L56" s="2">
@@ -17692,7 +17693,7 @@
         <v>384</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57:L88" si="35">INDEX($G:$G,A57)</f>
+        <f t="shared" ref="J57" si="35">INDEX($G:$G,A57)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L57" s="2" t="s">
@@ -17743,7 +17744,7 @@
         <v>633606293.63846266</v>
       </c>
       <c r="J59">
-        <f t="shared" ref="J59:L90" si="36">INDEX($G:$G,A59)*(INDEX($E:$E,A59))</f>
+        <f t="shared" ref="J59" si="36">INDEX($G:$G,A59)*(INDEX($E:$E,A59))</f>
         <v>616050383.99033499</v>
       </c>
       <c r="L59" s="2">
@@ -17761,7 +17762,7 @@
         <v>384</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ref="J60:L91" si="37">INDEX($G:$G,A60)</f>
+        <f t="shared" ref="J60" si="37">INDEX($G:$G,A60)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L60" s="2" t="s">
@@ -17812,7 +17813,7 @@
         <v>29844738.66663108</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:L93" si="38">INDEX($G:$G,A62)*(INDEX($E:$E,A62))</f>
+        <f t="shared" ref="J62" si="38">INDEX($G:$G,A62)*(INDEX($E:$E,A62))</f>
         <v>23941204.892940927</v>
       </c>
       <c r="L62" s="2">
@@ -17830,7 +17831,7 @@
         <v>384</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" ref="J63:L94" si="39">INDEX($G:$G,A63)</f>
+        <f t="shared" ref="J63" si="39">INDEX($G:$G,A63)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L63" s="2" t="s">
@@ -17881,7 +17882,7 @@
         <v>10675028.429321242</v>
       </c>
       <c r="J65">
-        <f t="shared" ref="J65:L96" si="40">INDEX($G:$G,A65)*(INDEX($E:$E,A65))</f>
+        <f t="shared" ref="J65" si="40">INDEX($G:$G,A65)*(INDEX($E:$E,A65))</f>
         <v>3123200.1503658621</v>
       </c>
       <c r="L65" s="2">
@@ -17899,7 +17900,7 @@
         <v>384</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:L97" si="41">INDEX($G:$G,A66)</f>
+        <f t="shared" ref="J66" si="41">INDEX($G:$G,A66)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L66" s="2" t="s">
@@ -17950,7 +17951,7 @@
         <v>11062986.1256807</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:L99" si="42">INDEX($G:$G,A68)*(INDEX($E:$E,A68))</f>
+        <f t="shared" ref="J68" si="42">INDEX($G:$G,A68)*(INDEX($E:$E,A68))</f>
         <v>7297860.2082118429</v>
       </c>
       <c r="L68" s="2">
@@ -17968,7 +17969,7 @@
         <v>384</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:L100" si="43">INDEX($G:$G,A69)</f>
+        <f t="shared" ref="J69" si="43">INDEX($G:$G,A69)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L69" s="2" t="s">
@@ -18019,7 +18020,7 @@
         <v>391388759.74775177</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:L102" si="44">INDEX($G:$G,A71)*(INDEX($E:$E,A71))</f>
+        <f t="shared" ref="J71" si="44">INDEX($G:$G,A71)*(INDEX($E:$E,A71))</f>
         <v>364488566.04153389</v>
       </c>
       <c r="L71" s="2">
@@ -18037,7 +18038,7 @@
         <v>384</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" ref="J72:L103" si="45">INDEX($G:$G,A72)</f>
+        <f t="shared" ref="J72" si="45">INDEX($G:$G,A72)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L72" s="2" t="s">
@@ -18088,7 +18089,7 @@
         <v>411178.70350342226</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:L105" si="46">INDEX($G:$G,A74)*(INDEX($E:$E,A74))</f>
+        <f t="shared" ref="J74" si="46">INDEX($G:$G,A74)*(INDEX($E:$E,A74))</f>
         <v>313969.75445454818</v>
       </c>
       <c r="L74" s="2">
@@ -18106,7 +18107,7 @@
         <v>384</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ref="J75:L106" si="47">INDEX($G:$G,A75)</f>
+        <f t="shared" ref="J75" si="47">INDEX($G:$G,A75)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L75" s="2" t="s">
@@ -18157,7 +18158,7 @@
         <v>15423797.141123557</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:L108" si="48">INDEX($G:$G,A77)*(INDEX($E:$E,A77))</f>
+        <f t="shared" ref="J77" si="48">INDEX($G:$G,A77)*(INDEX($E:$E,A77))</f>
         <v>7831355.0476981513</v>
       </c>
       <c r="L77" s="2">
@@ -18175,7 +18176,7 @@
         <v>384</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" ref="J78:L109" si="49">INDEX($G:$G,A78)</f>
+        <f t="shared" ref="J78" si="49">INDEX($G:$G,A78)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L78" s="2" t="s">
@@ -18226,7 +18227,7 @@
         <v>20380231.170149904</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:L111" si="50">INDEX($G:$G,A80)*(INDEX($E:$E,A80))</f>
+        <f t="shared" ref="J80" si="50">INDEX($G:$G,A80)*(INDEX($E:$E,A80))</f>
         <v>12296410.252385886</v>
       </c>
       <c r="L80" s="2">
@@ -18244,7 +18245,7 @@
         <v>384</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" ref="J81:L112" si="51">INDEX($G:$G,A81)</f>
+        <f t="shared" ref="J81" si="51">INDEX($G:$G,A81)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L81" s="2" t="s">
@@ -18295,7 +18296,7 @@
         <v>272472.84604319301</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J83:L114" si="52">INDEX($G:$G,A83)*(INDEX($E:$E,A83))</f>
+        <f t="shared" ref="J83" si="52">INDEX($G:$G,A83)*(INDEX($E:$E,A83))</f>
         <v>127476.10448693892</v>
       </c>
       <c r="L83" s="2">
@@ -18313,7 +18314,7 @@
         <v>384</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" ref="J84:L115" si="53">INDEX($G:$G,A84)</f>
+        <f t="shared" ref="J84" si="53">INDEX($G:$G,A84)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L84" s="2" t="s">
@@ -18364,7 +18365,7 @@
         <v>3281333.8099796101</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:L117" si="54">INDEX($G:$G,A86)*(INDEX($E:$E,A86))</f>
+        <f t="shared" ref="J86" si="54">INDEX($G:$G,A86)*(INDEX($E:$E,A86))</f>
         <v>2771495.3596985177</v>
       </c>
       <c r="L86" s="2">
@@ -18382,7 +18383,7 @@
         <v>384</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" ref="J87:L118" si="55">INDEX($G:$G,A87)</f>
+        <f t="shared" ref="J87" si="55">INDEX($G:$G,A87)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L87" s="2" t="s">
@@ -18433,7 +18434,7 @@
         <v>20071.65300595844</v>
       </c>
       <c r="J89">
-        <f t="shared" ref="J89:L120" si="56">INDEX($G:$G,A89)*(INDEX($E:$E,A89))</f>
+        <f t="shared" ref="J89" si="56">INDEX($G:$G,A89)*(INDEX($E:$E,A89))</f>
         <v>17949.409845878665</v>
       </c>
       <c r="L89" s="2">
@@ -18451,7 +18452,7 @@
         <v>384</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" ref="J90:L121" si="57">INDEX($G:$G,A90)</f>
+        <f t="shared" ref="J90" si="57">INDEX($G:$G,A90)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L90" s="2" t="s">
@@ -18502,7 +18503,7 @@
         <v>59275867.028648287</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:L123" si="58">INDEX($G:$G,A92)*(INDEX($E:$E,A92))</f>
+        <f t="shared" ref="J92" si="58">INDEX($G:$G,A92)*(INDEX($E:$E,A92))</f>
         <v>57429633.069339275</v>
       </c>
       <c r="L92" s="2">
@@ -18520,7 +18521,7 @@
         <v>384</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" ref="J93:L124" si="59">INDEX($G:$G,A93)</f>
+        <f t="shared" ref="J93" si="59">INDEX($G:$G,A93)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L93" s="2" t="s">
@@ -18571,7 +18572,7 @@
         <v>16938678.306430295</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95:L126" si="60">INDEX($G:$G,A95)*(INDEX($E:$E,A95))</f>
+        <f t="shared" ref="J95" si="60">INDEX($G:$G,A95)*(INDEX($E:$E,A95))</f>
         <v>9478796.532262966</v>
       </c>
       <c r="L95" s="2">
@@ -18589,7 +18590,7 @@
         <v>384</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" ref="J96:L127" si="61">INDEX($G:$G,A96)</f>
+        <f t="shared" ref="J96" si="61">INDEX($G:$G,A96)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L96" s="2" t="s">
@@ -18640,7 +18641,7 @@
         <v>10267</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:L129" si="62">INDEX($G:$G,A98)*(INDEX($E:$E,A98))</f>
+        <f t="shared" ref="J98" si="62">INDEX($G:$G,A98)*(INDEX($E:$E,A98))</f>
         <v>514.88260390642176</v>
       </c>
       <c r="L98" s="2">
@@ -18658,7 +18659,7 @@
         <v>384</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" ref="J99:L130" si="63">INDEX($G:$G,A99)</f>
+        <f t="shared" ref="J99" si="63">INDEX($G:$G,A99)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L99" s="2" t="s">
@@ -18709,7 +18710,7 @@
         <v>157540.41870779629</v>
       </c>
       <c r="J101">
-        <f t="shared" ref="J101:L132" si="64">INDEX($G:$G,A101)*(INDEX($E:$E,A101))</f>
+        <f t="shared" ref="J101" si="64">INDEX($G:$G,A101)*(INDEX($E:$E,A101))</f>
         <v>78786.978852623186</v>
       </c>
       <c r="L101" s="2">
@@ -18727,7 +18728,7 @@
         <v>384</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" ref="J102:L133" si="65">INDEX($G:$G,A102)</f>
+        <f t="shared" ref="J102" si="65">INDEX($G:$G,A102)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L102" s="2" t="s">
@@ -18778,7 +18779,7 @@
         <v>157167.56986944444</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:L135" si="66">INDEX($G:$G,A104)*(INDEX($E:$E,A104))</f>
+        <f t="shared" ref="J104" si="66">INDEX($G:$G,A104)*(INDEX($E:$E,A104))</f>
         <v>111063.83399959552</v>
       </c>
       <c r="L104" s="2">
@@ -18796,7 +18797,7 @@
         <v>384</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" ref="J105:L136" si="67">INDEX($G:$G,A105)</f>
+        <f t="shared" ref="J105" si="67">INDEX($G:$G,A105)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L105" s="2" t="s">
@@ -18847,7 +18848,7 @@
         <v>79237.919503760859</v>
       </c>
       <c r="J107">
-        <f t="shared" ref="J107:L138" si="68">INDEX($G:$G,A107)*(INDEX($E:$E,A107))</f>
+        <f t="shared" ref="J107" si="68">INDEX($G:$G,A107)*(INDEX($E:$E,A107))</f>
         <v>70366.814595421165</v>
       </c>
       <c r="L107" s="2">
@@ -18865,7 +18866,7 @@
         <v>384</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" ref="J108:L139" si="69">INDEX($G:$G,A108)</f>
+        <f t="shared" ref="J108" si="69">INDEX($G:$G,A108)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L108" s="2" t="s">
@@ -18916,7 +18917,7 @@
         <v>1522212.2648550284</v>
       </c>
       <c r="J110">
-        <f t="shared" ref="J110:L141" si="70">INDEX($G:$G,A110)*(INDEX($E:$E,A110))</f>
+        <f t="shared" ref="J110" si="70">INDEX($G:$G,A110)*(INDEX($E:$E,A110))</f>
         <v>990715.24780079641</v>
       </c>
       <c r="L110" s="2">
@@ -18934,7 +18935,7 @@
         <v>384</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" ref="J111:L142" si="71">INDEX($G:$G,A111)</f>
+        <f t="shared" ref="J111" si="71">INDEX($G:$G,A111)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L111" s="2" t="s">
@@ -18985,7 +18986,7 @@
         <v>37766.532901063983</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113:L144" si="72">INDEX($G:$G,A113)*(INDEX($E:$E,A113))</f>
+        <f t="shared" ref="J113" si="72">INDEX($G:$G,A113)*(INDEX($E:$E,A113))</f>
         <v>13429.980782209681</v>
       </c>
       <c r="L113" s="2">
@@ -19003,7 +19004,7 @@
         <v>384</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" ref="J114:L145" si="73">INDEX($G:$G,A114)</f>
+        <f t="shared" ref="J114" si="73">INDEX($G:$G,A114)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L114" s="2" t="s">
@@ -19054,7 +19055,7 @@
         <v>381107173.49912465</v>
       </c>
       <c r="J116">
-        <f t="shared" ref="J116:L147" si="74">INDEX($G:$G,A116)*(INDEX($E:$E,A116))</f>
+        <f t="shared" ref="J116" si="74">INDEX($G:$G,A116)*(INDEX($E:$E,A116))</f>
         <v>177639827.12827709</v>
       </c>
       <c r="L116" s="2">
@@ -19072,7 +19073,7 @@
         <v>384</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" ref="J117:L148" si="75">INDEX($G:$G,A117)</f>
+        <f t="shared" ref="J117" si="75">INDEX($G:$G,A117)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L117" s="2" t="s">
@@ -19123,7 +19124,7 @@
         <v>496977880.7140097</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:L150" si="76">INDEX($G:$G,A119)*(INDEX($E:$E,A119))</f>
+        <f t="shared" ref="J119" si="76">INDEX($G:$G,A119)*(INDEX($E:$E,A119))</f>
         <v>104184464.08435105</v>
       </c>
       <c r="L119" s="2">
@@ -19141,7 +19142,7 @@
         <v>384</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" ref="J120:L151" si="77">INDEX($G:$G,A120)</f>
+        <f t="shared" ref="J120" si="77">INDEX($G:$G,A120)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L120" s="2" t="s">
@@ -19192,7 +19193,7 @@
         <v>270580045.06376863</v>
       </c>
       <c r="J122">
-        <f t="shared" ref="J122:L153" si="78">INDEX($G:$G,A122)*(INDEX($E:$E,A122))</f>
+        <f t="shared" ref="J122" si="78">INDEX($G:$G,A122)*(INDEX($E:$E,A122))</f>
         <v>211334025.88501847</v>
       </c>
       <c r="L122" s="2">
@@ -19210,7 +19211,7 @@
         <v>384</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" ref="J123:L154" si="79">INDEX($G:$G,A123)</f>
+        <f t="shared" ref="J123" si="79">INDEX($G:$G,A123)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L123" s="2" t="s">
@@ -19261,7 +19262,7 @@
         <v>408760876.18561435</v>
       </c>
       <c r="J125">
-        <f t="shared" ref="J125:L156" si="80">INDEX($G:$G,A125)*(INDEX($E:$E,A125))</f>
+        <f t="shared" ref="J125" si="80">INDEX($G:$G,A125)*(INDEX($E:$E,A125))</f>
         <v>127880505.73964092</v>
       </c>
       <c r="L125" s="2">
@@ -19279,7 +19280,7 @@
         <v>384</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" ref="J126:L157" si="81">INDEX($G:$G,A126)</f>
+        <f t="shared" ref="J126" si="81">INDEX($G:$G,A126)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L126" s="2" t="s">
@@ -19330,7 +19331,7 @@
         <v>4414082.344630939</v>
       </c>
       <c r="J128">
-        <f t="shared" ref="J128:L159" si="82">INDEX($G:$G,A128)*(INDEX($E:$E,A128))</f>
+        <f t="shared" ref="J128" si="82">INDEX($G:$G,A128)*(INDEX($E:$E,A128))</f>
         <v>236881.91397584637</v>
       </c>
       <c r="L128" s="2">
@@ -19348,7 +19349,7 @@
         <v>384</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" ref="J129:L160" si="83">INDEX($G:$G,A129)</f>
+        <f t="shared" ref="J129" si="83">INDEX($G:$G,A129)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L129" s="2" t="s">
@@ -19399,7 +19400,7 @@
         <v>133896.54971485393</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:L177" si="84">INDEX($G:$G,A131)*(INDEX($E:$E,A131))</f>
+        <f t="shared" ref="J131" si="84">INDEX($G:$G,A131)*(INDEX($E:$E,A131))</f>
         <v>11133.980274877091</v>
       </c>
       <c r="L131" s="2">
@@ -19417,7 +19418,7 @@
         <v>384</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" ref="J132:L177" si="85">INDEX($G:$G,A132)</f>
+        <f t="shared" ref="J132" si="85">INDEX($G:$G,A132)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L132" s="2" t="s">
@@ -19468,7 +19469,7 @@
         <v>31702.221399054197</v>
       </c>
       <c r="J134">
-        <f t="shared" ref="J134:L177" si="86">INDEX($G:$G,A134)*(INDEX($E:$E,A134))</f>
+        <f t="shared" ref="J134" si="86">INDEX($G:$G,A134)*(INDEX($E:$E,A134))</f>
         <v>318.65232707761589</v>
       </c>
       <c r="L134" s="2">
@@ -19486,7 +19487,7 @@
         <v>384</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" ref="J135:L177" si="87">INDEX($G:$G,A135)</f>
+        <f t="shared" ref="J135" si="87">INDEX($G:$G,A135)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L135" s="2" t="s">
@@ -19537,7 +19538,7 @@
         <v>12146.386311276859</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:L177" si="88">INDEX($G:$G,A137)*(INDEX($E:$E,A137))</f>
+        <f t="shared" ref="J137" si="88">INDEX($G:$G,A137)*(INDEX($E:$E,A137))</f>
         <v>2347.6328669567515</v>
       </c>
       <c r="L137" s="2">
@@ -19555,7 +19556,7 @@
         <v>384</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" ref="J138:L177" si="89">INDEX($G:$G,A138)</f>
+        <f t="shared" ref="J138" si="89">INDEX($G:$G,A138)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L138" s="2" t="s">
@@ -19606,7 +19607,7 @@
         <v>4224.5444986427019</v>
       </c>
       <c r="J140">
-        <f t="shared" ref="J140:L177" si="90">INDEX($G:$G,A140)*(INDEX($E:$E,A140))</f>
+        <f t="shared" ref="J140" si="90">INDEX($G:$G,A140)*(INDEX($E:$E,A140))</f>
         <v>750.7129841914076</v>
       </c>
       <c r="L140" s="2">
@@ -19624,7 +19625,7 @@
         <v>384</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" ref="J141:L177" si="91">INDEX($G:$G,A141)</f>
+        <f t="shared" ref="J141" si="91">INDEX($G:$G,A141)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L141" s="2" t="s">
@@ -19675,7 +19676,7 @@
         <v>4360.2526619632908</v>
       </c>
       <c r="J143">
-        <f t="shared" ref="J143:L177" si="92">INDEX($G:$G,A143)*(INDEX($E:$E,A143))</f>
+        <f t="shared" ref="J143" si="92">INDEX($G:$G,A143)*(INDEX($E:$E,A143))</f>
         <v>548.70281378122263</v>
       </c>
       <c r="L143" s="2">
@@ -19693,7 +19694,7 @@
         <v>384</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" ref="J144:L177" si="93">INDEX($G:$G,A144)</f>
+        <f t="shared" ref="J144" si="93">INDEX($G:$G,A144)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L144" s="2" t="s">
@@ -19744,7 +19745,7 @@
         <v>331241769.02721441</v>
       </c>
       <c r="J146">
-        <f t="shared" ref="J146:L177" si="94">INDEX($G:$G,A146)*(INDEX($E:$E,A146))</f>
+        <f t="shared" ref="J146" si="94">INDEX($G:$G,A146)*(INDEX($E:$E,A146))</f>
         <v>32125282.683865041</v>
       </c>
       <c r="L146" s="2">
@@ -19762,7 +19763,7 @@
         <v>384</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" ref="J147:L177" si="95">INDEX($G:$G,A147)</f>
+        <f t="shared" ref="J147" si="95">INDEX($G:$G,A147)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L147" s="2" t="s">
@@ -19813,7 +19814,7 @@
         <v>33661374.482821837</v>
       </c>
       <c r="J149">
-        <f t="shared" ref="J149:L177" si="96">INDEX($G:$G,A149)*(INDEX($E:$E,A149))</f>
+        <f t="shared" ref="J149" si="96">INDEX($G:$G,A149)*(INDEX($E:$E,A149))</f>
         <v>7225507.3640893148</v>
       </c>
       <c r="L149" s="2">
@@ -19831,7 +19832,7 @@
         <v>384</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" ref="J150:L177" si="97">INDEX($G:$G,A150)</f>
+        <f t="shared" ref="J150" si="97">INDEX($G:$G,A150)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L150" s="2" t="s">
@@ -19882,7 +19883,7 @@
         <v>5575645.555691408</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:L177" si="98">INDEX($G:$G,A152)*(INDEX($E:$E,A152))</f>
+        <f t="shared" ref="J152" si="98">INDEX($G:$G,A152)*(INDEX($E:$E,A152))</f>
         <v>1498024.4936866846</v>
       </c>
       <c r="L152" s="2">
@@ -19900,7 +19901,7 @@
         <v>384</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" ref="J153:L177" si="99">INDEX($G:$G,A153)</f>
+        <f t="shared" ref="J153" si="99">INDEX($G:$G,A153)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L153" s="2" t="s">
@@ -19951,7 +19952,7 @@
         <v>7559790.6497449838</v>
       </c>
       <c r="J155">
-        <f t="shared" ref="J155:L177" si="100">INDEX($G:$G,A155)*(INDEX($E:$E,A155))</f>
+        <f t="shared" ref="J155" si="100">INDEX($G:$G,A155)*(INDEX($E:$E,A155))</f>
         <v>7379064.8040778842</v>
       </c>
       <c r="L155" s="2">
@@ -19969,7 +19970,7 @@
         <v>384</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" ref="J156:L177" si="101">INDEX($G:$G,A156)</f>
+        <f t="shared" ref="J156" si="101">INDEX($G:$G,A156)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L156" s="2" t="s">
@@ -20020,7 +20021,7 @@
         <v>66288.324982542515</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158:L177" si="102">INDEX($G:$G,A158)*(INDEX($E:$E,A158))</f>
+        <f t="shared" ref="J158" si="102">INDEX($G:$G,A158)*(INDEX($E:$E,A158))</f>
         <v>62896.698124382587</v>
       </c>
       <c r="L158" s="2">
@@ -20038,7 +20039,7 @@
         <v>384</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" ref="J159:L177" si="103">INDEX($G:$G,A159)</f>
+        <f t="shared" ref="J159" si="103">INDEX($G:$G,A159)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L159" s="2" t="s">
@@ -20089,7 +20090,7 @@
         <v>229.38496818568476</v>
       </c>
       <c r="J161">
-        <f t="shared" ref="J161:L177" si="104">INDEX($G:$G,A161)*(INDEX($E:$E,A161))</f>
+        <f t="shared" ref="J161" si="104">INDEX($G:$G,A161)*(INDEX($E:$E,A161))</f>
         <v>198.62655369491165</v>
       </c>
       <c r="L161" s="2">
@@ -20107,7 +20108,7 @@
         <v>384</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" ref="J162:L177" si="105">INDEX($G:$G,A162)</f>
+        <f t="shared" ref="J162" si="105">INDEX($G:$G,A162)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L162" s="2" t="s">
@@ -20158,7 +20159,7 @@
         <v>13.230155899473553</v>
       </c>
       <c r="J164">
-        <f t="shared" ref="J164:L177" si="106">INDEX($G:$G,A164)*(INDEX($E:$E,A164))</f>
+        <f t="shared" ref="J164" si="106">INDEX($G:$G,A164)*(INDEX($E:$E,A164))</f>
         <v>11.454047545866217</v>
       </c>
       <c r="L164" s="2">
@@ -20176,7 +20177,7 @@
         <v>384</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" ref="J165:L177" si="107">INDEX($G:$G,A165)</f>
+        <f t="shared" ref="J165" si="107">INDEX($G:$G,A165)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L165" s="2" t="s">
@@ -20227,7 +20228,7 @@
         <v>64.707243671771749</v>
       </c>
       <c r="J167">
-        <f t="shared" ref="J167:L177" si="108">INDEX($G:$G,A167)*(INDEX($E:$E,A167))</f>
+        <f t="shared" ref="J167" si="108">INDEX($G:$G,A167)*(INDEX($E:$E,A167))</f>
         <v>54.977027180897416</v>
       </c>
       <c r="L167" s="2">
@@ -20245,7 +20246,7 @@
         <v>384</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" ref="J168:L177" si="109">INDEX($G:$G,A168)</f>
+        <f t="shared" ref="J168" si="109">INDEX($G:$G,A168)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L168" s="2" t="s">
@@ -20296,7 +20297,7 @@
         <v>2434.8039578541598</v>
       </c>
       <c r="J170">
-        <f t="shared" ref="J170:L177" si="110">INDEX($G:$G,A170)*(INDEX($E:$E,A170))</f>
+        <f t="shared" ref="J170" si="110">INDEX($G:$G,A170)*(INDEX($E:$E,A170))</f>
         <v>2140.2933429864761</v>
       </c>
       <c r="L170" s="2">
@@ -20314,7 +20315,7 @@
         <v>384</v>
       </c>
       <c r="J171" t="str">
-        <f t="shared" ref="J171:L177" si="111">INDEX($G:$G,A171)</f>
+        <f t="shared" ref="J171" si="111">INDEX($G:$G,A171)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L171" s="2" t="s">
@@ -20365,7 +20366,7 @@
         <v>27.310408736925567</v>
       </c>
       <c r="J173">
-        <f t="shared" ref="J173:L177" si="112">INDEX($G:$G,A173)*(INDEX($E:$E,A173))</f>
+        <f t="shared" ref="J173" si="112">INDEX($G:$G,A173)*(INDEX($E:$E,A173))</f>
         <v>24.250989933778133</v>
       </c>
       <c r="L173" s="2">
@@ -20383,7 +20384,7 @@
         <v>384</v>
       </c>
       <c r="J174" t="str">
-        <f t="shared" ref="J174:L177" si="113">INDEX($G:$G,A174)</f>
+        <f t="shared" ref="J174" si="113">INDEX($G:$G,A174)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L174" s="2" t="s">
@@ -20434,7 +20435,7 @@
         <v>1738621.1995896285</v>
       </c>
       <c r="J176">
-        <f t="shared" ref="J176:L177" si="114">INDEX($G:$G,A176)*(INDEX($E:$E,A176))</f>
+        <f t="shared" ref="J176" si="114">INDEX($G:$G,A176)*(INDEX($E:$E,A176))</f>
         <v>532772.787773552</v>
       </c>
       <c r="L176" s="2">
@@ -20452,7 +20453,7 @@
         <v>384</v>
       </c>
       <c r="J177" t="str">
-        <f t="shared" ref="J177:L177" si="115">INDEX($G:$G,A177)</f>
+        <f t="shared" ref="J177" si="115">INDEX($G:$G,A177)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L177" s="2" t="s">
@@ -20476,6 +20477,4107 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX($G:G,A1)</f>
+        <v>KDENR_MAK</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.99917001154145002</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8381455</v>
+      </c>
+      <c r="J2">
+        <f>INDEX($G:$G,A2)*(INDEX($E:$E,A2))</f>
+        <v>8374498.4890841441</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8374498.4890841441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" t="str">
+        <f>INDEX($G:$G,A3)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>INDEX($G:G,A4)</f>
+        <v>KDENR_HER</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.98563656469343597</v>
+      </c>
+      <c r="G5" s="2">
+        <v>623487059</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="0">INDEX($G:$G,A5)*(INDEX($E:$E,A5))</f>
+        <v>614531642.96357358</v>
+      </c>
+      <c r="L5" s="2">
+        <v>614531642.96357358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="1">INDEX($G:$G,A6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f>INDEX($G:G,A7)</f>
+        <v>KDENR_WHK</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>0.99503222864688201</v>
+      </c>
+      <c r="G8" s="2">
+        <v>54625012</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="2">INDEX($G:$G,A8)*(INDEX($E:$E,A8))</f>
+        <v>54353647.430222675</v>
+      </c>
+      <c r="L8" s="2">
+        <v>54353647.430222675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9" si="3">INDEX($G:$G,A9)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="str">
+        <f>INDEX($G:G,A10)</f>
+        <v>KDENR_BLF</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0.97781476113946797</v>
+      </c>
+      <c r="G11" s="2">
+        <v>531955</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="4">INDEX($G:$G,A11)*(INDEX($E:$E,A11))</f>
+        <v>520153.45126194571</v>
+      </c>
+      <c r="L11" s="2">
+        <v>520153.45126194571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="5">INDEX($G:$G,A12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <f>INDEX($G:G,A13)</f>
+        <v>KDENR_WPF</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>1.3281606242636499</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6415002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="6">INDEX($G:$G,A14)*(INDEX($E:$E,A14))</f>
+        <v>8520153.0609725621</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8520153.0609725621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15" si="7">INDEX($G:$G,A15)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <f>INDEX($G:G,A16)</f>
+        <v>KDENR_SUF</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>1.3215096310771799</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5174194</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="8">INDEX($G:$G,A17)*(INDEX($E:$E,A17))</f>
+        <v>6837747.2040617578</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6837747.2040617578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18" si="9">INDEX($G:$G,A18)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <f>INDEX($G:G,A19)</f>
+        <v>KDENR_WIF</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>2.0078505560125999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4469466</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="10">INDEX($G:$G,A20)*(INDEX($E:$E,A20))</f>
+        <v>8974019.7931794114</v>
+      </c>
+      <c r="L20" s="2">
+        <v>8974019.7931794114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21" si="11">INDEX($G:$G,A21)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>INDEX($G:G,A22)</f>
+        <v>KDENR_WTF</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>1.5181213049406701</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8828297</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="12">INDEX($G:$G,A23)*(INDEX($E:$E,A23))</f>
+        <v>13402425.762043804</v>
+      </c>
+      <c r="L23" s="2">
+        <v>13402425.762043804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ref="J24" si="13">INDEX($G:$G,A24)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>INDEX($G:G,A25)</f>
+        <v>KDENR_HAL</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>3.2301100165557401</v>
+      </c>
+      <c r="G26" s="2">
+        <v>15114</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="14">INDEX($G:$G,A26)*(INDEX($E:$E,A26))</f>
+        <v>48819.882790223455</v>
+      </c>
+      <c r="L26" s="2">
+        <v>48819.882790223455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27" si="15">INDEX($G:$G,A27)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="str">
+        <f>INDEX($G:G,A28)</f>
+        <v>KDENR_PLA</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>2.2001005686169801</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9902257</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="16">INDEX($G:$G,A29)*(INDEX($E:$E,A29))</f>
+        <v>21785961.256291471</v>
+      </c>
+      <c r="L29" s="2">
+        <v>21785961.256291471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30" si="17">INDEX($G:$G,A30)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="str">
+        <f>INDEX($G:G,A31)</f>
+        <v>KDENR_FOU</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>1.35392519068479</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6504966</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32" si="18">INDEX($G:$G,A32)*(INDEX($E:$E,A32))</f>
+        <v>8807237.3319480754</v>
+      </c>
+      <c r="L32" s="2">
+        <v>8807237.3319480754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33" si="19">INDEX($G:$G,A33)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="str">
+        <f>INDEX($G:G,A34)</f>
+        <v>KDENR_FLA</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>1.0226037884288</v>
+      </c>
+      <c r="G35" s="2">
+        <v>938391</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="20">INDEX($G:$G,A35)*(INDEX($E:$E,A35))</f>
+        <v>959602.19162748998</v>
+      </c>
+      <c r="L35" s="2">
+        <v>959602.19162748998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36" si="21">INDEX($G:$G,A36)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <f>INDEX($G:G,A37)</f>
+        <v>KDENR_BFT</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0.93850882621111997</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12042</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="22">INDEX($G:$G,A38)*(INDEX($E:$E,A38))</f>
+        <v>11301.523285234307</v>
+      </c>
+      <c r="L38" s="2">
+        <v>11301.523285234307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39" si="23">INDEX($G:$G,A39)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="str">
+        <f>INDEX($G:G,A40)</f>
+        <v>KDENR_TUN</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>0.939766925802347</v>
+      </c>
+      <c r="G41" s="2">
+        <v>164489</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41" si="24">INDEX($G:$G,A41)*(INDEX($E:$E,A41))</f>
+        <v>154581.32185830225</v>
+      </c>
+      <c r="L41" s="2">
+        <v>154581.32185830225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42" si="25">INDEX($G:$G,A42)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="str">
+        <f>INDEX($G:G,A43)</f>
+        <v>KDENR_BIL</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0.94232982661081899</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6959</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="26">INDEX($G:$G,A44)*(INDEX($E:$E,A44))</f>
+        <v>6557.6732633846896</v>
+      </c>
+      <c r="L44" s="2">
+        <v>6557.6732633846896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45" si="27">INDEX($G:$G,A45)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="str">
+        <f>INDEX($G:G,A46)</f>
+        <v>KDENR_MPF</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>0.98186282341799402</v>
+      </c>
+      <c r="G47" s="2">
+        <v>763583</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47" si="28">INDEX($G:$G,A47)*(INDEX($E:$E,A47))</f>
+        <v>749733.76029398211</v>
+      </c>
+      <c r="L47" s="2">
+        <v>749733.76029398211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48" si="29">INDEX($G:$G,A48)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <f>INDEX($G:G,A49)</f>
+        <v>KDENR_BUT</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50">
+        <v>1.0434050315127801</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20064263</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="30">INDEX($G:$G,A50)*(INDEX($E:$E,A50))</f>
+        <v>20935152.967795707</v>
+      </c>
+      <c r="L50" s="2">
+        <v>20935152.967795707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51" si="31">INDEX($G:$G,A51)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <f>INDEX($G:G,A52)</f>
+        <v>KDENR_ANC</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1.1410593055934899</v>
+      </c>
+      <c r="G53" s="2">
+        <v>99593926</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53" si="32">INDEX($G:$G,A53)*(INDEX($E:$E,A53))</f>
+        <v>113642576.04288942</v>
+      </c>
+      <c r="L53" s="2">
+        <v>113642576.04288942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" ref="J54" si="33">INDEX($G:$G,A54)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="str">
+        <f>INDEX($G:G,A55)</f>
+        <v>KDENR_BPF</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>0.99462559808036199</v>
+      </c>
+      <c r="G56" s="2">
+        <v>29514066</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56" si="34">INDEX($G:$G,A56)*(INDEX($E:$E,A56))</f>
+        <v>29355445.547033276</v>
+      </c>
+      <c r="L56" s="2">
+        <v>29355445.547033276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57" si="35">INDEX($G:$G,A57)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="str">
+        <f>INDEX($G:G,A58)</f>
+        <v>KDENR_GOO</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>0.96863210488972096</v>
+      </c>
+      <c r="G59" s="2">
+        <v>616050384</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59" si="36">INDEX($G:$G,A59)*(INDEX($E:$E,A59))</f>
+        <v>596726180.17204082</v>
+      </c>
+      <c r="L59" s="2">
+        <v>596726180.17204082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ref="J60" si="37">INDEX($G:$G,A60)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <f>INDEX($G:G,A61)</f>
+        <v>KDENR_MEN</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>0.98769732795408005</v>
+      </c>
+      <c r="G62" s="2">
+        <v>23941205</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="38">INDEX($G:$G,A62)*(INDEX($E:$E,A62))</f>
+        <v>23646664.206500862</v>
+      </c>
+      <c r="L62" s="2">
+        <v>23646664.206500862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" ref="J63" si="39">INDEX($G:$G,A63)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="str">
+        <f>INDEX($G:G,A64)</f>
+        <v>KDENR_FDE</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65">
+        <v>1.3090591086915699</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3123200</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="40">INDEX($G:$G,A65)*(INDEX($E:$E,A65))</f>
+        <v>4088453.408265511</v>
+      </c>
+      <c r="L65" s="2">
+        <v>4088453.408265511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66" si="41">INDEX($G:$G,A66)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="str">
+        <f>INDEX($G:G,A67)</f>
+        <v>KDENR_COD</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>0.98932230436012902</v>
+      </c>
+      <c r="G68" s="2">
+        <v>7297860</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68" si="42">INDEX($G:$G,A68)*(INDEX($E:$E,A68))</f>
+        <v>7219935.6720976112</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7219935.6720976112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69" si="43">INDEX($G:$G,A69)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="str">
+        <f>INDEX($G:G,A70)</f>
+        <v>KDENR_SHK</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71">
+        <v>1.0022023057262699</v>
+      </c>
+      <c r="G71" s="2">
+        <v>364488566</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71" si="44">INDEX($G:$G,A71)*(INDEX($E:$E,A71))</f>
+        <v>365291281.25606167</v>
+      </c>
+      <c r="L71" s="2">
+        <v>365291281.25606167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ref="J72" si="45">INDEX($G:$G,A72)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="str">
+        <f>INDEX($G:G,A73)</f>
+        <v>KDENR_OHK</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>0.99300704960757102</v>
+      </c>
+      <c r="G74" s="2">
+        <v>313970</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74" si="46">INDEX($G:$G,A74)*(INDEX($E:$E,A74))</f>
+        <v>311774.42336528905</v>
+      </c>
+      <c r="L74" s="2">
+        <v>311774.42336528905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" ref="J75" si="47">INDEX($G:$G,A75)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="str">
+        <f>INDEX($G:G,A76)</f>
+        <v>KDENR_POL</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77">
+        <v>0.98977542321205403</v>
+      </c>
+      <c r="G77" s="2">
+        <v>7831355</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77" si="48">INDEX($G:$G,A77)*(INDEX($E:$E,A77))</f>
+        <v>7751282.7094488358</v>
+      </c>
+      <c r="L77" s="2">
+        <v>7751282.7094488358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" ref="J78" si="49">INDEX($G:$G,A78)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <f>INDEX($G:G,A79)</f>
+        <v>KDENR_RHK</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <v>0.98557807482908599</v>
+      </c>
+      <c r="G80" s="2">
+        <v>12296410</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80" si="50">INDEX($G:$G,A80)*(INDEX($E:$E,A80))</f>
+        <v>12119072.095109122</v>
+      </c>
+      <c r="L80" s="2">
+        <v>12119072.095109122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ref="J81" si="51">INDEX($G:$G,A81)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="str">
+        <f>INDEX($G:G,A82)</f>
+        <v>KDENR_BSB</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>0.98391225297734197</v>
+      </c>
+      <c r="G83" s="2">
+        <v>127476</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83" si="52">INDEX($G:$G,A83)*(INDEX($E:$E,A83))</f>
+        <v>125425.19836053964</v>
+      </c>
+      <c r="L83" s="2">
+        <v>125425.19836053964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" ref="J84" si="53">INDEX($G:$G,A84)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="str">
+        <f>INDEX($G:G,A85)</f>
+        <v>KDENR_SCU</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86">
+        <v>0.99581796389218302</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2771495</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86" si="54">INDEX($G:$G,A86)*(INDEX($E:$E,A86))</f>
+        <v>2759904.5078373658</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2759904.5078373658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ref="J87" si="55">INDEX($G:$G,A87)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="str">
+        <f>INDEX($G:G,A88)</f>
+        <v>KDENR_TYL</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89">
+        <v>0.99728367498897197</v>
+      </c>
+      <c r="G89" s="2">
+        <v>17949</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ref="J89" si="56">INDEX($G:$G,A89)*(INDEX($E:$E,A89))</f>
+        <v>17900.244682377059</v>
+      </c>
+      <c r="L89" s="2">
+        <v>17900.244682377059</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" ref="J90" si="57">INDEX($G:$G,A90)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <f>INDEX($G:G,A91)</f>
+        <v>KDENR_RED</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>1.00278291857216</v>
+      </c>
+      <c r="G92" s="2">
+        <v>57429633</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92" si="58">INDEX($G:$G,A92)*(INDEX($E:$E,A92))</f>
+        <v>57589454.992268033</v>
+      </c>
+      <c r="L92" s="2">
+        <v>57589454.992268033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" ref="J93" si="59">INDEX($G:$G,A93)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="str">
+        <f>INDEX($G:G,A94)</f>
+        <v>KDENR_OPT</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95">
+        <v>0.98963800144596903</v>
+      </c>
+      <c r="G95" s="2">
+        <v>9478797</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95" si="60">INDEX($G:$G,A95)*(INDEX($E:$E,A95))</f>
+        <v>9380577.7191920467</v>
+      </c>
+      <c r="L95" s="2">
+        <v>9380577.7191920467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" ref="J96" si="61">INDEX($G:$G,A96)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="str">
+        <f>INDEX($G:G,A97)</f>
+        <v>KDENR_SAL</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>0.97179638971138405</v>
+      </c>
+      <c r="G98">
+        <v>515</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98" si="62">INDEX($G:$G,A98)*(INDEX($E:$E,A98))</f>
+        <v>500.47514070136276</v>
+      </c>
+      <c r="L98" s="2">
+        <v>500.47514070136276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" ref="J99" si="63">INDEX($G:$G,A99)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <f>INDEX($G:G,A100)</f>
+        <v>KDENR_DRM</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>0.98265421264228703</v>
+      </c>
+      <c r="G101" s="2">
+        <v>78787</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101" si="64">INDEX($G:$G,A101)*(INDEX($E:$E,A101))</f>
+        <v>77420.377451447872</v>
+      </c>
+      <c r="L101" s="2">
+        <v>77420.377451447872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" ref="J102" si="65">INDEX($G:$G,A102)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <f>INDEX($G:G,A103)</f>
+        <v>KDENR_STB</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>0.98552248410877696</v>
+      </c>
+      <c r="G104" s="2">
+        <v>111064</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104" si="66">INDEX($G:$G,A104)*(INDEX($E:$E,A104))</f>
+        <v>109456.0691750572</v>
+      </c>
+      <c r="L104" s="2">
+        <v>109456.0691750572</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>35</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" ref="J105" si="67">INDEX($G:$G,A105)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>35</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="str">
+        <f>INDEX($G:G,A106)</f>
+        <v>KDENR_TAU</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>0.99599442201085198</v>
+      </c>
+      <c r="G107" s="2">
+        <v>70367</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ref="J107" si="68">INDEX($G:$G,A107)*(INDEX($E:$E,A107))</f>
+        <v>70085.139493637616</v>
+      </c>
+      <c r="L107" s="2">
+        <v>70085.139493637616</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" ref="J108" si="69">INDEX($G:$G,A108)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="str">
+        <f>INDEX($G:G,A109)</f>
+        <v>KDENR_WOL</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110">
+        <v>0.99435138765296704</v>
+      </c>
+      <c r="G110" s="2">
+        <v>990715</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110" si="70">INDEX($G:$G,A110)*(INDEX($E:$E,A110))</f>
+        <v>985118.8350186093</v>
+      </c>
+      <c r="L110" s="2">
+        <v>985118.8350186093</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>37</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" ref="J111" si="71">INDEX($G:$G,A111)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>37</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="str">
+        <f>INDEX($G:G,A112)</f>
+        <v>KDENR_SDF</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>38</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113">
+        <v>0.97546362599840097</v>
+      </c>
+      <c r="G113" s="2">
+        <v>13430</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ref="J113" si="72">INDEX($G:$G,A113)*(INDEX($E:$E,A113))</f>
+        <v>13100.476497158525</v>
+      </c>
+      <c r="L113" s="2">
+        <v>13100.476497158525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" ref="J114" si="73">INDEX($G:$G,A114)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <f>INDEX($G:G,A115)</f>
+        <v>KDENR_FDF</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>39</v>
+      </c>
+      <c r="C116">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116">
+        <v>0.98810786626977998</v>
+      </c>
+      <c r="G116" s="2">
+        <v>177639827</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ref="J116" si="74">INDEX($G:$G,A116)*(INDEX($E:$E,A116))</f>
+        <v>175527310.42150286</v>
+      </c>
+      <c r="L116" s="2">
+        <v>175527310.42150286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>39</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" ref="J117" si="75">INDEX($G:$G,A117)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="str">
+        <f>INDEX($G:G,A118)</f>
+        <v>KDENR_HAD</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119">
+        <v>0.98346346180801902</v>
+      </c>
+      <c r="G119" s="2">
+        <v>104184464</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ref="J119" si="76">INDEX($G:$G,A119)*(INDEX($E:$E,A119))</f>
+        <v>102461613.63205293</v>
+      </c>
+      <c r="L119" s="2">
+        <v>102461613.63205293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" ref="J120" si="77">INDEX($G:$G,A120)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="str">
+        <f>INDEX($G:G,A121)</f>
+        <v>KDENR_YTF</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>41</v>
+      </c>
+      <c r="C122">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122">
+        <v>0.98465270876600797</v>
+      </c>
+      <c r="G122" s="2">
+        <v>211334026</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J122" si="78">INDEX($G:$G,A122)*(INDEX($E:$E,A122))</f>
+        <v>208090621.15532595</v>
+      </c>
+      <c r="L122" s="2">
+        <v>208090621.15532595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" ref="J123" si="79">INDEX($G:$G,A123)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="str">
+        <f>INDEX($G:G,A124)</f>
+        <v>KDENR_DOG</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125">
+        <v>0.90471591242566296</v>
+      </c>
+      <c r="G125" s="2">
+        <v>127880506</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ref="J125" si="80">INDEX($G:$G,A125)*(INDEX($E:$E,A125))</f>
+        <v>115695528.66724546</v>
+      </c>
+      <c r="L125" s="2">
+        <v>115695528.66724546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>42</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" ref="J126" si="81">INDEX($G:$G,A126)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <f>INDEX($G:G,A127)</f>
+        <v>KDENR_SMO</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>43</v>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128">
+        <v>0.92383238852313998</v>
+      </c>
+      <c r="G128" s="2">
+        <v>236882</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ref="J128" si="82">INDEX($G:$G,A128)*(INDEX($E:$E,A128))</f>
+        <v>218839.26385813844</v>
+      </c>
+      <c r="L128" s="2">
+        <v>218839.26385813844</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" ref="J129" si="83">INDEX($G:$G,A129)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="str">
+        <f>INDEX($G:G,A130)</f>
+        <v>KDENR_SSH</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>44</v>
+      </c>
+      <c r="C131">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131">
+        <v>0.926159869712055</v>
+      </c>
+      <c r="G131" s="2">
+        <v>11134</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131" si="84">INDEX($G:$G,A131)*(INDEX($E:$E,A131))</f>
+        <v>10311.86398937402</v>
+      </c>
+      <c r="L131" s="2">
+        <v>10311.86398937402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>44</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" ref="J132" si="85">INDEX($G:$G,A132)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>44</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="str">
+        <f>INDEX($G:G,A133)</f>
+        <v>KDENR_DSH</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>45</v>
+      </c>
+      <c r="C134">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134">
+        <v>0.917207901112011</v>
+      </c>
+      <c r="G134" s="2">
+        <v>319</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ref="J134" si="86">INDEX($G:$G,A134)*(INDEX($E:$E,A134))</f>
+        <v>292.58932045473153</v>
+      </c>
+      <c r="L134" s="2">
+        <v>292.58932045473153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" ref="J135" si="87">INDEX($G:$G,A135)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="str">
+        <f>INDEX($G:G,A136)</f>
+        <v>KDENR_BLS</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>46</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>0.90876823342114699</v>
+      </c>
+      <c r="G137" s="2">
+        <v>2348</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ref="J137" si="88">INDEX($G:$G,A137)*(INDEX($E:$E,A137))</f>
+        <v>2133.7878120728533</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2133.7878120728533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>46</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" ref="J138" si="89">INDEX($G:$G,A138)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>46</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="str">
+        <f>INDEX($G:G,A139)</f>
+        <v>KDENR_POR</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>47</v>
+      </c>
+      <c r="C140">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E140">
+        <v>0.90707596037813698</v>
+      </c>
+      <c r="G140" s="2">
+        <v>751</v>
+      </c>
+      <c r="J140">
+        <f t="shared" ref="J140" si="90">INDEX($G:$G,A140)*(INDEX($E:$E,A140))</f>
+        <v>681.21404624398087</v>
+      </c>
+      <c r="L140" s="2">
+        <v>681.21404624398087</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>47</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" ref="J141" si="91">INDEX($G:$G,A141)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>47</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="str">
+        <f>INDEX($G:G,A142)</f>
+        <v>KDENR_PSH</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143">
+        <v>0.90145282757325695</v>
+      </c>
+      <c r="G143" s="2">
+        <v>549</v>
+      </c>
+      <c r="J143">
+        <f t="shared" ref="J143" si="92">INDEX($G:$G,A143)*(INDEX($E:$E,A143))</f>
+        <v>494.89760233771807</v>
+      </c>
+      <c r="L143" s="2">
+        <v>494.89760233771807</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>48</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" ref="J144" si="93">INDEX($G:$G,A144)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="str">
+        <f>INDEX($G:G,A145)</f>
+        <v>KDENR_WSK</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146">
+        <v>0.90321087254269194</v>
+      </c>
+      <c r="G146" s="2">
+        <v>32125283</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146" si="94">INDEX($G:$G,A146)*(INDEX($E:$E,A146))</f>
+        <v>29015904.889110908</v>
+      </c>
+      <c r="L146" s="2">
+        <v>29015904.889110908</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>49</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" ref="J147" si="95">INDEX($G:$G,A147)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>49</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="str">
+        <f>INDEX($G:G,A148)</f>
+        <v>KDENR_LSK</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>0.95459631357248098</v>
+      </c>
+      <c r="G149" s="2">
+        <v>7225507</v>
+      </c>
+      <c r="J149">
+        <f t="shared" ref="J149" si="96">INDEX($G:$G,A149)*(INDEX($E:$E,A149))</f>
+        <v>6897442.3458921565</v>
+      </c>
+      <c r="L149" s="2">
+        <v>6897442.3458921565</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" ref="J150" si="97">INDEX($G:$G,A150)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="str">
+        <f>INDEX($G:G,A151)</f>
+        <v>KDENR_SK</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152">
+        <v>0.95703073708892805</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1498024</v>
+      </c>
+      <c r="J152">
+        <f t="shared" ref="J152" si="98">INDEX($G:$G,A152)*(INDEX($E:$E,A152))</f>
+        <v>1433655.0128969043</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1433655.0128969043</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>51</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" ref="J153" si="99">INDEX($G:$G,A153)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="str">
+        <f>INDEX($G:G,A154)</f>
+        <v>KDENR_SB</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>52</v>
+      </c>
+      <c r="C155">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <v>0.96251245961084297</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7379065</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155" si="100">INDEX($G:$G,A155)*(INDEX($E:$E,A155))</f>
+        <v>7102442.0027782852</v>
+      </c>
+      <c r="L155" s="2">
+        <v>7102442.0027782852</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>52</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" ref="J156" si="101">INDEX($G:$G,A156)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>52</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="str">
+        <f>INDEX($G:G,A157)</f>
+        <v>KDENR_PIN</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>53</v>
+      </c>
+      <c r="C158">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>76</v>
+      </c>
+      <c r="E158">
+        <v>0.97195368986420705</v>
+      </c>
+      <c r="G158" s="2">
+        <v>62897</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ref="J158" si="102">INDEX($G:$G,A158)*(INDEX($E:$E,A158))</f>
+        <v>61132.971231389034</v>
+      </c>
+      <c r="L158" s="2">
+        <v>61132.971231389034</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>53</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" ref="J159" si="103">INDEX($G:$G,A159)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>53</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="str">
+        <f>INDEX($G:G,A160)</f>
+        <v>KDENR_REP</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>54</v>
+      </c>
+      <c r="C161">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161">
+        <v>0.97765303097221801</v>
+      </c>
+      <c r="G161" s="2">
+        <v>199</v>
+      </c>
+      <c r="J161">
+        <f t="shared" ref="J161" si="104">INDEX($G:$G,A161)*(INDEX($E:$E,A161))</f>
+        <v>194.55295316347139</v>
+      </c>
+      <c r="L161" s="2">
+        <v>194.55295316347139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" ref="J162" si="105">INDEX($G:$G,A162)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>54</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="str">
+        <f>INDEX($G:G,A163)</f>
+        <v>KDENR_RWH</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>55</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>84</v>
+      </c>
+      <c r="E164">
+        <v>0.99600123981654098</v>
+      </c>
+      <c r="G164" s="2">
+        <v>11</v>
+      </c>
+      <c r="J164">
+        <f t="shared" ref="J164" si="106">INDEX($G:$G,A164)*(INDEX($E:$E,A164))</f>
+        <v>10.95601363798195</v>
+      </c>
+      <c r="L164" s="2">
+        <v>10.95601363798195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>55</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" ref="J165" si="107">INDEX($G:$G,A165)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>55</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="str">
+        <f>INDEX($G:G,A166)</f>
+        <v>KDENR_BWH</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>56</v>
+      </c>
+      <c r="C167">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>0.97836536199115198</v>
+      </c>
+      <c r="G167" s="2">
+        <v>55</v>
+      </c>
+      <c r="J167">
+        <f t="shared" ref="J167" si="108">INDEX($G:$G,A167)*(INDEX($E:$E,A167))</f>
+        <v>53.81009490951336</v>
+      </c>
+      <c r="L167" s="2">
+        <v>53.81009490951336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" ref="J168" si="109">INDEX($G:$G,A168)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <f>INDEX($G:G,A169)</f>
+        <v>KDENR_SWH</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170">
+        <v>0.98478722368559002</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2140</v>
+      </c>
+      <c r="J170">
+        <f t="shared" ref="J170" si="110">INDEX($G:$G,A170)*(INDEX($E:$E,A170))</f>
+        <v>2107.4446586871627</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2107.4446586871627</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>57</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" ref="J171" si="111">INDEX($G:$G,A171)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="str">
+        <f>INDEX($G:G,A172)</f>
+        <v>KDENR_TWH</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>58</v>
+      </c>
+      <c r="C173">
+        <v>58</v>
+      </c>
+      <c r="D173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E173">
+        <v>0.98491559602335699</v>
+      </c>
+      <c r="G173" s="2">
+        <v>24</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ref="J173" si="112">INDEX($G:$G,A173)*(INDEX($E:$E,A173))</f>
+        <v>23.637974304560569</v>
+      </c>
+      <c r="L173" s="2">
+        <v>23.637974304560569</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>58</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" ref="J174" si="113">INDEX($G:$G,A174)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>58</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="str">
+        <f>INDEX($G:G,A175)</f>
+        <v>KDENR_INV</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>59</v>
+      </c>
+      <c r="C176">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176">
+        <v>0.98722653268680605</v>
+      </c>
+      <c r="G176" s="2">
+        <v>532773</v>
+      </c>
+      <c r="J176">
+        <f t="shared" ref="J176" si="114">INDEX($G:$G,A176)*(INDEX($E:$E,A176))</f>
+        <v>525967.64149914775</v>
+      </c>
+      <c r="L176" s="2">
+        <v>525967.64149914775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>59</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" ref="J177" si="115">INDEX($G:$G,A177)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E178">
+    <sortCondition ref="A1:A178"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>

--- a/R/Init_nums_scalar_for_recruits.xlsx
+++ b/R/Init_nums_scalar_for_recruits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vert_order" sheetId="3" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="20190226" sheetId="5" r:id="rId4"/>
     <sheet name="20190301" sheetId="6" r:id="rId5"/>
     <sheet name="20190422" sheetId="7" r:id="rId6"/>
-    <sheet name="codenames" sheetId="2" r:id="rId7"/>
+    <sheet name="20190507" sheetId="8" r:id="rId7"/>
+    <sheet name="codenames" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="449">
   <si>
     <t>species</t>
   </si>
@@ -11373,9 +11374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20480,7 +20479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:M176"/>
     </sheetView>
   </sheetViews>
@@ -24578,6 +24577,3814 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="str">
+        <f>INDEX($G:G,A1)</f>
+        <v>KDENR_MAK</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>1.02162587514616</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8374498</v>
+      </c>
+      <c r="J2">
+        <f>INDEX($G:$G,A2)*(INDEX($E:$E,A2))</f>
+        <v>8555603.8481597658</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8555603.8481597658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>INDEX($G:$G,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <f>INDEX($G:G,A4)</f>
+        <v>KDENR_HER</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.34889384459203598</v>
+      </c>
+      <c r="G5" s="2">
+        <v>614531643</v>
+      </c>
+      <c r="J5">
+        <f>INDEX($G:$G,A5)*(INDEX($E:$E,A5))</f>
+        <v>214406307.54973054</v>
+      </c>
+      <c r="L5" s="2">
+        <v>214406307.54973054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>INDEX($G:$G,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f>INDEX($G:G,A7)</f>
+        <v>KDENR_WHK</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>1.0392610738100301</v>
+      </c>
+      <c r="G8" s="2">
+        <v>54353647</v>
+      </c>
+      <c r="J8">
+        <f>INDEX($G:$G,A8)*(INDEX($E:$E,A8))</f>
+        <v>56487629.546711318</v>
+      </c>
+      <c r="L8" s="2">
+        <v>56487629.546711318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>INDEX($G:$G,A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="str">
+        <f>INDEX($G:G,A10)</f>
+        <v>KDENR_BLF</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1.0203686023974301</v>
+      </c>
+      <c r="G11" s="2">
+        <v>520153</v>
+      </c>
+      <c r="J11">
+        <f>INDEX($G:$G,A11)*(INDEX($E:$E,A11))</f>
+        <v>530747.7896428305</v>
+      </c>
+      <c r="L11" s="2">
+        <v>530747.7896428305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f>INDEX($G:$G,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <f>INDEX($G:G,A13)</f>
+        <v>KDENR_WPF</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>0.95163514548704398</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8520153</v>
+      </c>
+      <c r="J14">
+        <f>INDEX($G:$G,A14)*(INDEX($E:$E,A14))</f>
+        <v>8108077.0397268739</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8108077.0397268739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <f>INDEX($G:$G,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="str">
+        <f>INDEX($G:G,A16)</f>
+        <v>KDENR_SUF</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>9.4527879916958907E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6837747</v>
+      </c>
+      <c r="J17">
+        <f>INDEX($G:$G,A17)*(INDEX($E:$E,A17))</f>
+        <v>646357.72731854604</v>
+      </c>
+      <c r="L17" s="2">
+        <v>646357.72731854604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f>INDEX($G:$G,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <f>INDEX($G:G,A19)</f>
+        <v>KDENR_WIF</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>0.59615886424407505</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8974020</v>
+      </c>
+      <c r="J20">
+        <f>INDEX($G:$G,A20)*(INDEX($E:$E,A20))</f>
+        <v>5349941.5709036142</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5349941.5709036142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <f>INDEX($G:$G,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>INDEX($G:G,A22)</f>
+        <v>KDENR_WTF</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>0.86926189342392601</v>
+      </c>
+      <c r="G23" s="2">
+        <v>13402426</v>
+      </c>
+      <c r="J23">
+        <f>INDEX($G:$G,A23)*(INDEX($E:$E,A23))</f>
+        <v>11650218.201234056</v>
+      </c>
+      <c r="L23" s="2">
+        <v>11650218.201234056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <f>INDEX($G:$G,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>INDEX($G:G,A25)</f>
+        <v>KDENR_HAL</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0.57694978561586996</v>
+      </c>
+      <c r="G26" s="2">
+        <v>48820</v>
+      </c>
+      <c r="J26">
+        <f>INDEX($G:$G,A26)*(INDEX($E:$E,A26))</f>
+        <v>28166.68853376677</v>
+      </c>
+      <c r="L26" s="2">
+        <v>28166.68853376677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <f>INDEX($G:$G,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="str">
+        <f>INDEX($G:G,A28)</f>
+        <v>KDENR_PLA</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0.71513354131859996</v>
+      </c>
+      <c r="G29" s="2">
+        <v>21785961</v>
+      </c>
+      <c r="J29">
+        <f>INDEX($G:$G,A29)*(INDEX($E:$E,A29))</f>
+        <v>15579871.440958908</v>
+      </c>
+      <c r="L29" s="2">
+        <v>15579871.440958908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <f>INDEX($G:$G,A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="str">
+        <f>INDEX($G:G,A31)</f>
+        <v>KDENR_FOU</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>0.94399689979812695</v>
+      </c>
+      <c r="G32" s="2">
+        <v>8807237</v>
+      </c>
+      <c r="J32">
+        <f>INDEX($G:$G,A32)*(INDEX($E:$E,A32))</f>
+        <v>8314004.4237873564</v>
+      </c>
+      <c r="L32" s="2">
+        <v>8314004.4237873564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f>INDEX($G:$G,A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="str">
+        <f>INDEX($G:G,A34)</f>
+        <v>KDENR_FLA</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>1.03875615740803</v>
+      </c>
+      <c r="G35" s="2">
+        <v>959602</v>
+      </c>
+      <c r="J35">
+        <f>INDEX($G:$G,A35)*(INDEX($E:$E,A35))</f>
+        <v>996792.4861610604</v>
+      </c>
+      <c r="L35" s="2">
+        <v>996792.4861610604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <f>INDEX($G:$G,A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <f>INDEX($G:G,A37)</f>
+        <v>KDENR_BFT</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0.202152742357849</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11302</v>
+      </c>
+      <c r="J38">
+        <f>INDEX($G:$G,A38)*(INDEX($E:$E,A38))</f>
+        <v>2284.7302941284092</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2284.7302941284092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <f>INDEX($G:$G,A39)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="str">
+        <f>INDEX($G:G,A40)</f>
+        <v>KDENR_TUN</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>0.202172150774235</v>
+      </c>
+      <c r="G41" s="2">
+        <v>154581</v>
+      </c>
+      <c r="J41">
+        <f>INDEX($G:$G,A41)*(INDEX($E:$E,A41))</f>
+        <v>31251.973238832023</v>
+      </c>
+      <c r="L41" s="2">
+        <v>31251.973238832023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f>INDEX($G:$G,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="str">
+        <f>INDEX($G:G,A43)</f>
+        <v>KDENR_BIL</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0.20218601201213601</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6558</v>
+      </c>
+      <c r="J44">
+        <f>INDEX($G:$G,A44)*(INDEX($E:$E,A44))</f>
+        <v>1325.935866775588</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1325.935866775588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <f>INDEX($G:$G,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="str">
+        <f>INDEX($G:G,A46)</f>
+        <v>KDENR_MPF</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>1.0494612667513099</v>
+      </c>
+      <c r="G47" s="2">
+        <v>749734</v>
+      </c>
+      <c r="J47">
+        <f>INDEX($G:$G,A47)*(INDEX($E:$E,A47))</f>
+        <v>786816.7933665266</v>
+      </c>
+      <c r="L47" s="2">
+        <v>786816.7933665266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <f>INDEX($G:$G,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <f>INDEX($G:G,A49)</f>
+        <v>KDENR_BUT</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50">
+        <v>0.96137940213961104</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20935153</v>
+      </c>
+      <c r="J50">
+        <f>INDEX($G:$G,A50)*(INDEX($E:$E,A50))</f>
+        <v>20126624.874841284</v>
+      </c>
+      <c r="L50" s="2">
+        <v>20126624.874841284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <f>INDEX($G:$G,A51)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <f>INDEX($G:G,A52)</f>
+        <v>KDENR_ANC</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1.0042484271423</v>
+      </c>
+      <c r="G53" s="2">
+        <v>113642576</v>
+      </c>
+      <c r="J53">
+        <f>INDEX($G:$G,A53)*(INDEX($E:$E,A53))</f>
+        <v>114125378.20439929</v>
+      </c>
+      <c r="L53" s="2">
+        <v>114125378.20439929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <f>INDEX($G:$G,A54)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="str">
+        <f>INDEX($G:G,A55)</f>
+        <v>KDENR_BPF</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>0.99279865801970801</v>
+      </c>
+      <c r="G56" s="2">
+        <v>29355446</v>
+      </c>
+      <c r="J56">
+        <f>INDEX($G:$G,A56)*(INDEX($E:$E,A56))</f>
+        <v>29144047.394370005</v>
+      </c>
+      <c r="L56" s="2">
+        <v>29144047.394370005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <f>INDEX($G:$G,A57)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="str">
+        <f>INDEX($G:G,A58)</f>
+        <v>KDENR_GOO</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>0.16804618275842101</v>
+      </c>
+      <c r="G59" s="2">
+        <v>596726180</v>
+      </c>
+      <c r="J59">
+        <f>INDEX($G:$G,A59)*(INDEX($E:$E,A59))</f>
+        <v>100277556.70101443</v>
+      </c>
+      <c r="L59" s="2">
+        <v>100277556.70101443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <f>INDEX($G:$G,A60)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <f>INDEX($G:G,A61)</f>
+        <v>KDENR_MEN</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>1.0271539243147201</v>
+      </c>
+      <c r="G62" s="2">
+        <v>23646664</v>
+      </c>
+      <c r="J62">
+        <f>INDEX($G:$G,A62)*(INDEX($E:$E,A62))</f>
+        <v>24288763.724551614</v>
+      </c>
+      <c r="L62" s="2">
+        <v>24288763.724551614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <f>INDEX($G:$G,A63)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="str">
+        <f>INDEX($G:G,A64)</f>
+        <v>KDENR_FDE</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65">
+        <v>0.76404462212586499</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4088453</v>
+      </c>
+      <c r="J65">
+        <f>INDEX($G:$G,A65)*(INDEX($E:$E,A65))</f>
+        <v>3123760.5274643591</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3123760.5274643591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="J66">
+        <f>INDEX($G:$G,A66)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="str">
+        <f>INDEX($G:G,A67)</f>
+        <v>KDENR_COD</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>1.0334651230223499</v>
+      </c>
+      <c r="G68" s="2">
+        <v>7219936</v>
+      </c>
+      <c r="J68">
+        <f>INDEX($G:$G,A68)*(INDEX($E:$E,A68))</f>
+        <v>7461552.0464534927</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7461552.0464534927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="J69">
+        <f>INDEX($G:$G,A69)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="str">
+        <f>INDEX($G:G,A70)</f>
+        <v>KDENR_SHK</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71">
+        <v>1.02884317371403</v>
+      </c>
+      <c r="G71" s="2">
+        <v>365291281</v>
+      </c>
+      <c r="J71">
+        <f>INDEX($G:$G,A71)*(INDEX($E:$E,A71))</f>
+        <v>375827440.87410355</v>
+      </c>
+      <c r="L71" s="2">
+        <v>375827440.87410355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="J72">
+        <f>INDEX($G:$G,A72)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="str">
+        <f>INDEX($G:G,A73)</f>
+        <v>KDENR_OHK</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>1.0344370851196201</v>
+      </c>
+      <c r="G74" s="2">
+        <v>311774</v>
+      </c>
+      <c r="J74">
+        <f>INDEX($G:$G,A74)*(INDEX($E:$E,A74))</f>
+        <v>322510.58777608443</v>
+      </c>
+      <c r="L74" s="2">
+        <v>322510.58777608443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="J75">
+        <f>INDEX($G:$G,A75)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="str">
+        <f>INDEX($G:G,A76)</f>
+        <v>KDENR_POL</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77">
+        <v>1.0131134884662401</v>
+      </c>
+      <c r="G77" s="2">
+        <v>7751283</v>
+      </c>
+      <c r="J77">
+        <f>INDEX($G:$G,A77)*(INDEX($E:$E,A77))</f>
+        <v>7852929.3602190623</v>
+      </c>
+      <c r="L77" s="2">
+        <v>7852929.3602190623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="J78">
+        <f>INDEX($G:$G,A78)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <f>INDEX($G:G,A79)</f>
+        <v>KDENR_RHK</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <v>1.0337479224817101</v>
+      </c>
+      <c r="G80" s="2">
+        <v>12119072</v>
+      </c>
+      <c r="J80">
+        <f>INDEX($G:$G,A80)*(INDEX($E:$E,A80))</f>
+        <v>12528065.502406264</v>
+      </c>
+      <c r="L80" s="2">
+        <v>12528065.502406264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="J81">
+        <f>INDEX($G:$G,A81)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="str">
+        <f>INDEX($G:G,A82)</f>
+        <v>KDENR_BSB</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>1.0341074834110999</v>
+      </c>
+      <c r="G83" s="2">
+        <v>125425</v>
+      </c>
+      <c r="J83">
+        <f>INDEX($G:$G,A83)*(INDEX($E:$E,A83))</f>
+        <v>129702.9311068372</v>
+      </c>
+      <c r="L83" s="2">
+        <v>129702.9311068372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="J84">
+        <f>INDEX($G:$G,A84)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="str">
+        <f>INDEX($G:G,A85)</f>
+        <v>KDENR_SCU</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86">
+        <v>1.03451387717437</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2759905</v>
+      </c>
+      <c r="J86">
+        <f>INDEX($G:$G,A86)*(INDEX($E:$E,A86))</f>
+        <v>2855160.0221829298</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2855160.0221829298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="J87">
+        <f>INDEX($G:$G,A87)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="str">
+        <f>INDEX($G:G,A88)</f>
+        <v>KDENR_TYL</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89">
+        <v>1.0345460805507001</v>
+      </c>
+      <c r="G89" s="2">
+        <v>17900</v>
+      </c>
+      <c r="J89">
+        <f>INDEX($G:$G,A89)*(INDEX($E:$E,A89))</f>
+        <v>18518.374841857531</v>
+      </c>
+      <c r="L89" s="2">
+        <v>18518.374841857531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="J90">
+        <f>INDEX($G:$G,A90)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="str">
+        <f>INDEX($G:G,A91)</f>
+        <v>KDENR_RED</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>1.02022257845486</v>
+      </c>
+      <c r="G92" s="2">
+        <v>57589455</v>
+      </c>
+      <c r="J92">
+        <f>INDEX($G:$G,A92)*(INDEX($E:$E,A92))</f>
+        <v>58754062.271910131</v>
+      </c>
+      <c r="L92" s="2">
+        <v>58754062.271910131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="J93">
+        <f>INDEX($G:$G,A93)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="str">
+        <f>INDEX($G:G,A94)</f>
+        <v>KDENR_OPT</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95">
+        <v>1.0199954489811001</v>
+      </c>
+      <c r="G95" s="2">
+        <v>9380578</v>
+      </c>
+      <c r="J95">
+        <f>INDEX($G:$G,A95)*(INDEX($E:$E,A95))</f>
+        <v>9568146.8688122295</v>
+      </c>
+      <c r="L95" s="2">
+        <v>9568146.8688122295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="J96">
+        <f>INDEX($G:$G,A96)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="str">
+        <f>INDEX($G:G,A97)</f>
+        <v>KDENR_SAL</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98">
+        <v>1.03072067154435</v>
+      </c>
+      <c r="G98">
+        <v>500</v>
+      </c>
+      <c r="J98">
+        <f>INDEX($G:$G,A98)*(INDEX($E:$E,A98))</f>
+        <v>515.36033577217495</v>
+      </c>
+      <c r="L98" s="2">
+        <v>515.36033577217495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="J99">
+        <f>INDEX($G:$G,A99)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <f>INDEX($G:G,A100)</f>
+        <v>KDENR_DRM</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>1.0334805296083001</v>
+      </c>
+      <c r="G101" s="2">
+        <v>77420</v>
+      </c>
+      <c r="J101">
+        <f>INDEX($G:$G,A101)*(INDEX($E:$E,A101))</f>
+        <v>80012.062602274586</v>
+      </c>
+      <c r="L101" s="2">
+        <v>80012.062602274586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="J102">
+        <f>INDEX($G:$G,A102)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="str">
+        <f>INDEX($G:G,A103)</f>
+        <v>KDENR_STB</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>1.0338365107423999</v>
+      </c>
+      <c r="G104" s="2">
+        <v>109456</v>
+      </c>
+      <c r="J104">
+        <f>INDEX($G:$G,A104)*(INDEX($E:$E,A104))</f>
+        <v>113159.60911982012</v>
+      </c>
+      <c r="L104" s="2">
+        <v>113159.60911982012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>35</v>
+      </c>
+      <c r="J105">
+        <f>INDEX($G:$G,A105)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>35</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="str">
+        <f>INDEX($G:G,A106)</f>
+        <v>KDENR_TAU</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>1.0338186250621599</v>
+      </c>
+      <c r="G107" s="2">
+        <v>70085</v>
+      </c>
+      <c r="J107">
+        <f>INDEX($G:$G,A107)*(INDEX($E:$E,A107))</f>
+        <v>72455.178337481484</v>
+      </c>
+      <c r="L107" s="2">
+        <v>72455.178337481484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="J108">
+        <f>INDEX($G:$G,A108)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="str">
+        <f>INDEX($G:G,A109)</f>
+        <v>KDENR_WOL</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110">
+        <v>1.01349838642109</v>
+      </c>
+      <c r="G110" s="2">
+        <v>985119</v>
+      </c>
+      <c r="J110">
+        <f>INDEX($G:$G,A110)*(INDEX($E:$E,A110))</f>
+        <v>998416.5169327578</v>
+      </c>
+      <c r="L110" s="2">
+        <v>998416.5169327578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>37</v>
+      </c>
+      <c r="J111">
+        <f>INDEX($G:$G,A111)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>37</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="str">
+        <f>INDEX($G:G,A112)</f>
+        <v>KDENR_SDF</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>38</v>
+      </c>
+      <c r="C113">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113">
+        <v>1.0117823850850001</v>
+      </c>
+      <c r="G113" s="2">
+        <v>13100</v>
+      </c>
+      <c r="J113">
+        <f>INDEX($G:$G,A113)*(INDEX($E:$E,A113))</f>
+        <v>13254.349244613501</v>
+      </c>
+      <c r="L113" s="2">
+        <v>13254.349244613501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="J114">
+        <f>INDEX($G:$G,A114)</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="str">
+        <f>INDEX($G:G,A115)</f>
+        <v>KDENR_FDF</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>39</v>
+      </c>
+      <c r="C116">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116">
+        <v>1.01336898876158</v>
+      </c>
+      <c r="G116" s="2">
+        <v>175527310</v>
+      </c>
+      <c r="J116">
+        <f>INDEX($G:$G,A116)*(INDEX($E:$E,A116))</f>
+        <v>177873932.63474035</v>
+      </c>
+      <c r="L116" s="2">
+        <v>177873932.63474035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>39</v>
+      </c>
+      <c r="J117">
+        <f>INDEX($G:$G,A117)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="str">
+        <f>INDEX($G:G,A118)</f>
+        <v>KDENR_HAD</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119">
+        <v>1.02050374191088</v>
+      </c>
+      <c r="G119" s="2">
+        <v>102461614</v>
+      </c>
+      <c r="J119">
+        <f>INDEX($G:$G,A119)*(INDEX($E:$E,A119))</f>
+        <v>104562460.4892282</v>
+      </c>
+      <c r="L119" s="2">
+        <v>104562460.4892282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="J120">
+        <f>INDEX($G:$G,A120)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="str">
+        <f>INDEX($G:G,A121)</f>
+        <v>KDENR_YTF</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>41</v>
+      </c>
+      <c r="C122">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122">
+        <v>1.01278121959378</v>
+      </c>
+      <c r="G122" s="2">
+        <v>208090621</v>
+      </c>
+      <c r="J122">
+        <f>INDEX($G:$G,A122)*(INDEX($E:$E,A122))</f>
+        <v>210750272.92240703</v>
+      </c>
+      <c r="L122" s="2">
+        <v>210750272.92240703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+      <c r="J123">
+        <f>INDEX($G:$G,A123)</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="str">
+        <f>INDEX($G:G,A124)</f>
+        <v>KDENR_DOG</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125">
+        <v>0.210867968672209</v>
+      </c>
+      <c r="G125" s="2">
+        <v>115695529</v>
+      </c>
+      <c r="J125">
+        <f>INDEX($G:$G,A125)*(INDEX($E:$E,A125))</f>
+        <v>24396481.18468665</v>
+      </c>
+      <c r="L125" s="2">
+        <v>24396481.18468665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>42</v>
+      </c>
+      <c r="J126">
+        <f>INDEX($G:$G,A126)</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <f>INDEX($G:G,A127)</f>
+        <v>KDENR_SMO</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>43</v>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128">
+        <v>1.01154655600737</v>
+      </c>
+      <c r="G128" s="2">
+        <v>218839</v>
+      </c>
+      <c r="J128">
+        <f>INDEX($G:$G,A128)*(INDEX($E:$E,A128))</f>
+        <v>221365.83677009685</v>
+      </c>
+      <c r="L128" s="2">
+        <v>221365.83677009685</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="J129">
+        <f>INDEX($G:$G,A129)</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="str">
+        <f>INDEX($G:G,A130)</f>
+        <v>KDENR_SSH</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>44</v>
+      </c>
+      <c r="C131">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131">
+        <v>1.0115939974367001</v>
+      </c>
+      <c r="G131" s="2">
+        <v>10312</v>
+      </c>
+      <c r="J131">
+        <f>INDEX($G:$G,A131)*(INDEX($E:$E,A131))</f>
+        <v>10431.557301567251</v>
+      </c>
+      <c r="L131" s="2">
+        <v>10431.557301567251</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>44</v>
+      </c>
+      <c r="J132">
+        <f>INDEX($G:$G,A132)</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>44</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="str">
+        <f>INDEX($G:G,A133)</f>
+        <v>KDENR_DSH</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>45</v>
+      </c>
+      <c r="C134">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134">
+        <v>1.0111131207513899</v>
+      </c>
+      <c r="G134" s="2">
+        <v>293</v>
+      </c>
+      <c r="J134">
+        <f>INDEX($G:$G,A134)*(INDEX($E:$E,A134))</f>
+        <v>296.25614438015725</v>
+      </c>
+      <c r="L134" s="2">
+        <v>296.25614438015725</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+      <c r="J135">
+        <f>INDEX($G:$G,A135)</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="str">
+        <f>INDEX($G:G,A136)</f>
+        <v>KDENR_BLS</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>46</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>1.0077515930710499</v>
+      </c>
+      <c r="G137" s="2">
+        <v>2134</v>
+      </c>
+      <c r="J137">
+        <f>INDEX($G:$G,A137)*(INDEX($E:$E,A137))</f>
+        <v>2150.5418996136204</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2150.5418996136204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>46</v>
+      </c>
+      <c r="J138">
+        <f>INDEX($G:$G,A138)</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>46</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="str">
+        <f>INDEX($G:G,A139)</f>
+        <v>KDENR_POR</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>47</v>
+      </c>
+      <c r="C140">
+        <v>47</v>
+      </c>
+      <c r="D140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E140">
+        <v>1.00777176383403</v>
+      </c>
+      <c r="G140" s="2">
+        <v>681</v>
+      </c>
+      <c r="J140">
+        <f>INDEX($G:$G,A140)*(INDEX($E:$E,A140))</f>
+        <v>686.29257117097438</v>
+      </c>
+      <c r="L140" s="2">
+        <v>686.29257117097438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>47</v>
+      </c>
+      <c r="J141">
+        <f>INDEX($G:$G,A141)</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>47</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="str">
+        <f>INDEX($G:G,A142)</f>
+        <v>KDENR_PSH</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143">
+        <v>1.00754986138005</v>
+      </c>
+      <c r="G143" s="2">
+        <v>495</v>
+      </c>
+      <c r="J143">
+        <f>INDEX($G:$G,A143)*(INDEX($E:$E,A143))</f>
+        <v>498.73718138312472</v>
+      </c>
+      <c r="L143" s="2">
+        <v>498.73718138312472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>48</v>
+      </c>
+      <c r="J144">
+        <f>INDEX($G:$G,A144)</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="str">
+        <f>INDEX($G:G,A145)</f>
+        <v>KDENR_WSK</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146">
+        <v>0.172960429543699</v>
+      </c>
+      <c r="G146" s="2">
+        <v>29015905</v>
+      </c>
+      <c r="J146">
+        <f>INDEX($G:$G,A146)*(INDEX($E:$E,A146))</f>
+        <v>5018603.3923991639</v>
+      </c>
+      <c r="L146" s="2">
+        <v>5018603.3923991639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>49</v>
+      </c>
+      <c r="J147">
+        <f>INDEX($G:$G,A147)</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>49</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="str">
+        <f>INDEX($G:G,A148)</f>
+        <v>KDENR_LSK</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>1.02102076000088</v>
+      </c>
+      <c r="G149" s="2">
+        <v>6897442</v>
+      </c>
+      <c r="J149">
+        <f>INDEX($G:$G,A149)*(INDEX($E:$E,A149))</f>
+        <v>7042431.4729019897</v>
+      </c>
+      <c r="L149" s="2">
+        <v>7042431.4729019897</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="J150">
+        <f>INDEX($G:$G,A150)</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="str">
+        <f>INDEX($G:G,A151)</f>
+        <v>KDENR_SK</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152">
+        <v>1.0220339589290099</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1433655</v>
+      </c>
+      <c r="J152">
+        <f>INDEX($G:$G,A152)*(INDEX($E:$E,A152))</f>
+        <v>1465244.0953883699</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1465244.0953883699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>51</v>
+      </c>
+      <c r="J153">
+        <f>INDEX($G:$G,A153)</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="str">
+        <f>INDEX($G:G,A154)</f>
+        <v>KDENR_SB</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>52</v>
+      </c>
+      <c r="C155">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <v>0.162205729748121</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7102442</v>
+      </c>
+      <c r="J155">
+        <f>INDEX($G:$G,A155)*(INDEX($E:$E,A155))</f>
+        <v>1152056.787603704</v>
+      </c>
+      <c r="L155" s="2">
+        <v>1152056.787603704</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>52</v>
+      </c>
+      <c r="J156">
+        <f>INDEX($G:$G,A156)</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>52</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="str">
+        <f>INDEX($G:G,A157)</f>
+        <v>KDENR_PIN</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>53</v>
+      </c>
+      <c r="C158">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>76</v>
+      </c>
+      <c r="E158">
+        <v>0.31716023313646802</v>
+      </c>
+      <c r="G158" s="2">
+        <v>61133</v>
+      </c>
+      <c r="J158">
+        <f>INDEX($G:$G,A158)*(INDEX($E:$E,A158))</f>
+        <v>19388.9565323317</v>
+      </c>
+      <c r="L158" s="2">
+        <v>19388.9565323317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>53</v>
+      </c>
+      <c r="J159">
+        <f>INDEX($G:$G,A159)</f>
+        <v>0</v>
+      </c>
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>53</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="str">
+        <f>INDEX($G:G,A160)</f>
+        <v>KDENR_REP</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>54</v>
+      </c>
+      <c r="C161">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161">
+        <v>1.0116746188733401</v>
+      </c>
+      <c r="G161" s="2">
+        <v>195</v>
+      </c>
+      <c r="J161">
+        <f>INDEX($G:$G,A161)*(INDEX($E:$E,A161))</f>
+        <v>197.27655068030131</v>
+      </c>
+      <c r="L161" s="2">
+        <v>197.27655068030131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+      <c r="J162">
+        <f>INDEX($G:$G,A162)</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>54</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="str">
+        <f>INDEX($G:G,A163)</f>
+        <v>KDENR_RWH</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>55</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>84</v>
+      </c>
+      <c r="E164">
+        <v>1.0022505151646599</v>
+      </c>
+      <c r="G164" s="2">
+        <v>11</v>
+      </c>
+      <c r="J164">
+        <f>INDEX($G:$G,A164)*(INDEX($E:$E,A164))</f>
+        <v>11.024755666811259</v>
+      </c>
+      <c r="L164" s="2">
+        <v>11.024755666811259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>55</v>
+      </c>
+      <c r="J165">
+        <f>INDEX($G:$G,A165)</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>55</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="str">
+        <f>INDEX($G:G,A166)</f>
+        <v>KDENR_BWH</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>56</v>
+      </c>
+      <c r="C167">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167">
+        <v>1.0018860542969701</v>
+      </c>
+      <c r="G167" s="2">
+        <v>54</v>
+      </c>
+      <c r="J167">
+        <f>INDEX($G:$G,A167)*(INDEX($E:$E,A167))</f>
+        <v>54.101846932036388</v>
+      </c>
+      <c r="L167" s="2">
+        <v>54.101846932036388</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="J168">
+        <f>INDEX($G:$G,A168)</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <f>INDEX($G:G,A169)</f>
+        <v>KDENR_SWH</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170">
+        <v>1.00143185092745</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2107</v>
+      </c>
+      <c r="J170">
+        <f>INDEX($G:$G,A170)*(INDEX($E:$E,A170))</f>
+        <v>2110.0169099041373</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2110.0169099041373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>57</v>
+      </c>
+      <c r="J171">
+        <f>INDEX($G:$G,A171)</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="str">
+        <f>INDEX($G:G,A172)</f>
+        <v>KDENR_TWH</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>58</v>
+      </c>
+      <c r="C173">
+        <v>58</v>
+      </c>
+      <c r="D173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E173">
+        <v>0.99979674155234599</v>
+      </c>
+      <c r="G173" s="2">
+        <v>24</v>
+      </c>
+      <c r="J173">
+        <f>INDEX($G:$G,A173)*(INDEX($E:$E,A173))</f>
+        <v>23.995121797256303</v>
+      </c>
+      <c r="L173" s="2">
+        <v>23.995121797256303</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>58</v>
+      </c>
+      <c r="J174">
+        <f>INDEX($G:$G,A174)</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>58</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="str">
+        <f>INDEX($G:G,A175)</f>
+        <v>KDENR_INV</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>59</v>
+      </c>
+      <c r="C176">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176">
+        <v>1.0125235973572</v>
+      </c>
+      <c r="G176" s="2">
+        <v>525968</v>
+      </c>
+      <c r="J176">
+        <f>INDEX($G:$G,A176)*(INDEX($E:$E,A176))</f>
+        <v>532555.01145477174</v>
+      </c>
+      <c r="L176" s="2">
+        <v>532555.01145477174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>59</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J177" t="str">
+        <f>INDEX($G:$G,A177)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:J178">
+    <sortCondition ref="A1:A178"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>

--- a/R/Init_nums_scalar_for_recruits.xlsx
+++ b/R/Init_nums_scalar_for_recruits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9930" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="vert_order" sheetId="3" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="20190301" sheetId="6" r:id="rId5"/>
     <sheet name="20190422" sheetId="7" r:id="rId6"/>
     <sheet name="20190507" sheetId="8" r:id="rId7"/>
-    <sheet name="codenames" sheetId="2" r:id="rId8"/>
+    <sheet name="20190513" sheetId="9" r:id="rId8"/>
+    <sheet name="codenames" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="450">
   <si>
     <t>species</t>
   </si>
@@ -1373,6 +1374,9 @@
   </si>
   <si>
     <t>To USE 20190228</t>
+  </si>
+  <si>
+    <t>TO USE: SELECT ALL, SORT ON COLUMN 'D', PASTE ALPHBETICALLY SORTED RECRTUIT SCALAR; SORT COL 'A'; PASTE RECRUIT KDENR_XXX FROM BIOL FILE INTO COL 'G'; COPY AND PASTE VALS FROM 'J'</t>
   </si>
 </sst>
 </file>
@@ -24580,8 +24584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28385,6 +28389,3820 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>INDEX($G:G,A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>0.96637251733206997</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8555604</v>
+      </c>
+      <c r="J3" t="e">
+        <f>INDEX($G:$G,A3)*(INDEX($E:$E,A3))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" s="2">
+        <v>8267900.5747763272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>INDEX($G:$G,A4)</f>
+        <v>8555604</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>INDEX($G:G,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>4.4628380472135403</v>
+      </c>
+      <c r="G6" s="2">
+        <v>214406308</v>
+      </c>
+      <c r="J6" t="e">
+        <f>INDEX($G:$G,A6)*(INDEX($E:$E,A6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="2">
+        <v>956860628.90498483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>INDEX($G:$G,A7)</f>
+        <v>214406308</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>INDEX($G:G,A8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>0.95920413992228204</v>
+      </c>
+      <c r="G9" s="2">
+        <v>56487630</v>
+      </c>
+      <c r="J9" t="e">
+        <f>INDEX($G:$G,A9)*(INDEX($E:$E,A9))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="2">
+        <v>54183168.550398096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f>INDEX($G:$G,A10)</f>
+        <v>56487630</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f>INDEX($G:G,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>0.98031000543831803</v>
+      </c>
+      <c r="G12" s="2">
+        <v>530748</v>
+      </c>
+      <c r="J12" t="e">
+        <f>INDEX($G:$G,A12)*(INDEX($E:$E,A12))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="2">
+        <v>520297.57476637641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f>INDEX($G:$G,A13)</f>
+        <v>530748</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>INDEX($G:G,A14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>0.81838242346125001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8108077</v>
+      </c>
+      <c r="J15" t="e">
+        <f>INDEX($G:$G,A15)*(INDEX($E:$E,A15))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6635507.7048704214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f>INDEX($G:$G,A16)</f>
+        <v>8108077</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>INDEX($G:G,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
+        <v>2.5126606057937799</v>
+      </c>
+      <c r="G18" s="2">
+        <v>646358</v>
+      </c>
+      <c r="J18" t="e">
+        <f>INDEX($G:$G,A18)*(INDEX($E:$E,A18))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1624078.283839656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f>INDEX($G:$G,A19)</f>
+        <v>646358</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>INDEX($G:G,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21">
+        <v>0.72083764035817899</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5349942</v>
+      </c>
+      <c r="J21" t="e">
+        <f>INDEX($G:$G,A21)*(INDEX($E:$E,A21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3856439.5673331167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f>INDEX($G:$G,A22)</f>
+        <v>5349942</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>INDEX($G:G,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>0.786269369075005</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11650218</v>
+      </c>
+      <c r="J24" t="e">
+        <f>INDEX($G:$G,A24)*(INDEX($E:$E,A24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9160209.5564462673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <f>INDEX($G:$G,A25)</f>
+        <v>11650218</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>INDEX($G:G,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>0.55194389416626599</v>
+      </c>
+      <c r="G27" s="2">
+        <v>28167</v>
+      </c>
+      <c r="J27" t="e">
+        <f>INDEX($G:$G,A27)*(INDEX($E:$E,A27))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" s="2">
+        <v>15546.603666981215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <f>INDEX($G:$G,A28)</f>
+        <v>28167</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>INDEX($G:G,A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0.670791676503252</v>
+      </c>
+      <c r="G30" s="2">
+        <v>15579871</v>
+      </c>
+      <c r="J30" t="e">
+        <f>INDEX($G:$G,A30)*(INDEX($E:$E,A30))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="2">
+        <v>10450847.787794398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <f>INDEX($G:$G,A31)</f>
+        <v>15579871</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>INDEX($G:G,A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0.81964309327406004</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8314004</v>
+      </c>
+      <c r="J33" t="e">
+        <f>INDEX($G:$G,A33)*(INDEX($E:$E,A33))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="2">
+        <v>6814515.9560529087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <f>INDEX($G:$G,A34)</f>
+        <v>8314004</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f>INDEX($G:G,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>0.962307478281057</v>
+      </c>
+      <c r="G36" s="2">
+        <v>996792</v>
+      </c>
+      <c r="J36" t="e">
+        <f>INDEX($G:$G,A36)*(INDEX($E:$E,A36))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" s="2">
+        <v>959220.39589073136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <f>INDEX($G:$G,A37)</f>
+        <v>996792</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f>INDEX($G:G,A38)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>2.0896744378886201</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2285</v>
+      </c>
+      <c r="J39" t="e">
+        <f>INDEX($G:$G,A39)*(INDEX($E:$E,A39))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4774.9060905754968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <f>INDEX($G:$G,A40)</f>
+        <v>2285</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f>INDEX($G:G,A41)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>2.0897310451316899</v>
+      </c>
+      <c r="G42" s="2">
+        <v>31252</v>
+      </c>
+      <c r="J42" t="e">
+        <f>INDEX($G:$G,A42)*(INDEX($E:$E,A42))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" s="2">
+        <v>65308.274622455574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <f>INDEX($G:$G,A43)</f>
+        <v>31252</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>INDEX($G:G,A44)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>2.0897139078652498</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1326</v>
+      </c>
+      <c r="J45" t="e">
+        <f>INDEX($G:$G,A45)*(INDEX($E:$E,A45))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2770.960641829321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <f>INDEX($G:$G,A46)</f>
+        <v>1326</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f>INDEX($G:G,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>0.95804837171452195</v>
+      </c>
+      <c r="G48" s="2">
+        <v>786817</v>
+      </c>
+      <c r="J48" t="e">
+        <f>INDEX($G:$G,A48)*(INDEX($E:$E,A48))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" s="2">
+        <v>753808.745687305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <f>INDEX($G:$G,A49)</f>
+        <v>786817</v>
+      </c>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f>INDEX($G:G,A50)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51">
+        <v>0.97789950966908001</v>
+      </c>
+      <c r="G51" s="2">
+        <v>20126625</v>
+      </c>
+      <c r="J51" t="e">
+        <f>INDEX($G:$G,A51)*(INDEX($E:$E,A51))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" s="2">
+        <v>19681816.718793448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <f>INDEX($G:$G,A52)</f>
+        <v>20126625</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f>INDEX($G:G,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>0.99028932464642905</v>
+      </c>
+      <c r="G54" s="2">
+        <v>114125378</v>
+      </c>
+      <c r="J54" t="e">
+        <f>INDEX($G:$G,A54)*(INDEX($E:$E,A54))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" s="2">
+        <v>113017143.50463843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="J55">
+        <f>INDEX($G:$G,A55)</f>
+        <v>114125378</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f>INDEX($G:G,A56)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57">
+        <v>0.986622337721765</v>
+      </c>
+      <c r="G57" s="2">
+        <v>29144047</v>
+      </c>
+      <c r="J57" t="e">
+        <f>INDEX($G:$G,A57)*(INDEX($E:$E,A57))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" s="2">
+        <v>28754167.781812992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <f>INDEX($G:$G,A58)</f>
+        <v>29144047</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>INDEX($G:G,A59)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>5.8671820799648504</v>
+      </c>
+      <c r="G60" s="2">
+        <v>100277557</v>
+      </c>
+      <c r="J60" t="e">
+        <f>INDEX($G:$G,A60)*(INDEX($E:$E,A60))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" s="2">
+        <v>588346685.45305383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <f>INDEX($G:$G,A61)</f>
+        <v>100277557</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f>INDEX($G:G,A62)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>0.96637768312420003</v>
+      </c>
+      <c r="G63" s="2">
+        <v>24288764</v>
+      </c>
+      <c r="J63" t="e">
+        <f>INDEX($G:$G,A63)*(INDEX($E:$E,A63))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L63" s="2">
+        <v>23472119.480270479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <f>INDEX($G:$G,A64)</f>
+        <v>24288764</v>
+      </c>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f>INDEX($G:G,A65)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66">
+        <v>0.97968872431844101</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3123761</v>
+      </c>
+      <c r="J66" t="e">
+        <f>INDEX($G:$G,A66)*(INDEX($E:$E,A66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L66" s="2">
+        <v>3060313.4291656977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <f>INDEX($G:$G,A67)</f>
+        <v>3123761</v>
+      </c>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>22</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f>INDEX($G:G,A68)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>0.98175998648196605</v>
+      </c>
+      <c r="G69" s="2">
+        <v>7461552</v>
+      </c>
+      <c r="J69" t="e">
+        <f>INDEX($G:$G,A69)*(INDEX($E:$E,A69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L69" s="2">
+        <v>7325453.1906544864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <f>INDEX($G:$G,A70)</f>
+        <v>7461552</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f>INDEX($G:G,A71)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72">
+        <v>0.96602562986824603</v>
+      </c>
+      <c r="G72" s="2">
+        <v>375827441</v>
+      </c>
+      <c r="J72" t="e">
+        <f>INDEX($G:$G,A72)*(INDEX($E:$E,A72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L72" s="2">
+        <v>363058940.41379607</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="J73">
+        <f>INDEX($G:$G,A73)</f>
+        <v>375827441</v>
+      </c>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f>INDEX($G:G,A74)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75">
+        <v>0.98158623830724301</v>
+      </c>
+      <c r="G75" s="2">
+        <v>322511</v>
+      </c>
+      <c r="J75" t="e">
+        <f>INDEX($G:$G,A75)*(INDEX($E:$E,A75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L75" s="2">
+        <v>316572.35930270725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <f>INDEX($G:$G,A76)</f>
+        <v>322511</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f>INDEX($G:G,A77)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <v>0.98989450947836999</v>
+      </c>
+      <c r="G78" s="2">
+        <v>7852929</v>
+      </c>
+      <c r="J78" t="e">
+        <f>INDEX($G:$G,A78)*(INDEX($E:$E,A78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L78" s="2">
+        <v>7773571.3004234666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="J79">
+        <f>INDEX($G:$G,A79)</f>
+        <v>7852929</v>
+      </c>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f>INDEX($G:G,A80)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81">
+        <v>0.97743295410891196</v>
+      </c>
+      <c r="G81" s="2">
+        <v>12528066</v>
+      </c>
+      <c r="J81" t="e">
+        <f>INDEX($G:$G,A81)*(INDEX($E:$E,A81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L81" s="2">
+        <v>12245344.55965142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="J82">
+        <f>INDEX($G:$G,A82)</f>
+        <v>12528066</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>27</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <f>INDEX($G:G,A83)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>0.98120167813382198</v>
+      </c>
+      <c r="G84" s="2">
+        <v>129703</v>
+      </c>
+      <c r="J84" t="e">
+        <f>INDEX($G:$G,A84)*(INDEX($E:$E,A84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L84" s="2">
+        <v>127264.80125899111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="J85">
+        <f>INDEX($G:$G,A85)</f>
+        <v>129703</v>
+      </c>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f>INDEX($G:G,A86)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87">
+        <v>0.98177814443945</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2855160</v>
+      </c>
+      <c r="J87" t="e">
+        <f>INDEX($G:$G,A87)*(INDEX($E:$E,A87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2803133.6868777401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="J88">
+        <f>INDEX($G:$G,A88)</f>
+        <v>2855160</v>
+      </c>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <f>INDEX($G:G,A89)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90">
+        <v>0.981979926302049</v>
+      </c>
+      <c r="G90" s="2">
+        <v>18518</v>
+      </c>
+      <c r="J90" t="e">
+        <f>INDEX($G:$G,A90)*(INDEX($E:$E,A90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L90" s="2">
+        <v>18184.304275261344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="J91">
+        <f>INDEX($G:$G,A91)</f>
+        <v>18518</v>
+      </c>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f>INDEX($G:G,A92)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>0.98620174158078799</v>
+      </c>
+      <c r="G93" s="2">
+        <v>58754062</v>
+      </c>
+      <c r="J93" t="e">
+        <f>INDEX($G:$G,A93)*(INDEX($E:$E,A93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L93" s="2">
+        <v>57943358.269345596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="J94">
+        <f>INDEX($G:$G,A94)</f>
+        <v>58754062</v>
+      </c>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>31</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f>INDEX($G:G,A95)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96">
+        <v>0.98618575596674996</v>
+      </c>
+      <c r="G96" s="2">
+        <v>9568147</v>
+      </c>
+      <c r="J96" t="e">
+        <f>INDEX($G:$G,A96)*(INDEX($E:$E,A96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L96" s="2">
+        <v>9435970.2823959906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="J97">
+        <f>INDEX($G:$G,A97)</f>
+        <v>9568147</v>
+      </c>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>32</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <f>INDEX($G:G,A98)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="C99">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99">
+        <v>0.983873842655416</v>
+      </c>
+      <c r="G99">
+        <v>515</v>
+      </c>
+      <c r="J99" t="e">
+        <f>INDEX($G:$G,A99)*(INDEX($E:$E,A99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L99" s="2">
+        <v>506.69502896753926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="J100">
+        <f>INDEX($G:$G,A100)</f>
+        <v>515</v>
+      </c>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f>INDEX($G:G,A101)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>0.977253000905142</v>
+      </c>
+      <c r="G102" s="2">
+        <v>80012</v>
+      </c>
+      <c r="J102" t="e">
+        <f>INDEX($G:$G,A102)*(INDEX($E:$E,A102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L102" s="2">
+        <v>78191.967108422221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="J103">
+        <f>INDEX($G:$G,A103)</f>
+        <v>80012</v>
+      </c>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>34</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f>INDEX($G:G,A104)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105">
+        <v>0.97763416898382804</v>
+      </c>
+      <c r="G105" s="2">
+        <v>113160</v>
+      </c>
+      <c r="J105" t="e">
+        <f>INDEX($G:$G,A105)*(INDEX($E:$E,A105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L105" s="2">
+        <v>110629.08256220998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>35</v>
+      </c>
+      <c r="J106">
+        <f>INDEX($G:$G,A106)</f>
+        <v>113160</v>
+      </c>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>35</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <f>INDEX($G:G,A107)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>0.97765261116189095</v>
+      </c>
+      <c r="G108" s="2">
+        <v>72455</v>
+      </c>
+      <c r="J108" t="e">
+        <f>INDEX($G:$G,A108)*(INDEX($E:$E,A108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L108" s="2">
+        <v>70835.819941734808</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="J109">
+        <f>INDEX($G:$G,A109)</f>
+        <v>72455</v>
+      </c>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>36</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f>INDEX($G:G,A110)</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>37</v>
+      </c>
+      <c r="C111">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111">
+        <v>0.98992729736486695</v>
+      </c>
+      <c r="G111" s="2">
+        <v>998417</v>
+      </c>
+      <c r="J111" t="e">
+        <f>INDEX($G:$G,A111)*(INDEX($E:$E,A111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L111" s="2">
+        <v>988360.24245313834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>37</v>
+      </c>
+      <c r="J112">
+        <f>INDEX($G:$G,A112)</f>
+        <v>998417</v>
+      </c>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>37</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <f>INDEX($G:G,A113)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="C114">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114">
+        <v>0.99010920504213995</v>
+      </c>
+      <c r="G114" s="2">
+        <v>13254</v>
+      </c>
+      <c r="J114" t="e">
+        <f>INDEX($G:$G,A114)*(INDEX($E:$E,A114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L114" s="2">
+        <v>13122.907403628524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="J115">
+        <f>INDEX($G:$G,A115)</f>
+        <v>13254</v>
+      </c>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>38</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f>INDEX($G:G,A116)</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>39</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>0.98993762881686898</v>
+      </c>
+      <c r="G117" s="2">
+        <v>177873933</v>
+      </c>
+      <c r="J117" t="e">
+        <f>INDEX($G:$G,A117)*(INDEX($E:$E,A117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L117" s="2">
+        <v>176084099.46235061</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="J118">
+        <f>INDEX($G:$G,A118)</f>
+        <v>177873933</v>
+      </c>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>39</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f>INDEX($G:G,A119)</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120">
+        <v>0.98130314557887499</v>
+      </c>
+      <c r="G120" s="2">
+        <v>104562460</v>
+      </c>
+      <c r="J120" t="e">
+        <f>INDEX($G:$G,A120)*(INDEX($E:$E,A120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L120" s="2">
+        <v>102607470.90746529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="J121">
+        <f>INDEX($G:$G,A121)</f>
+        <v>104562460</v>
+      </c>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>40</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <f>INDEX($G:G,A122)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+      <c r="C123">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123">
+        <v>1.00224396572352</v>
+      </c>
+      <c r="G123" s="2">
+        <v>210750273</v>
+      </c>
+      <c r="J123" t="e">
+        <f>INDEX($G:$G,A123)*(INDEX($E:$E,A123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L123" s="2">
+        <v>211223189.38883448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>41</v>
+      </c>
+      <c r="J124">
+        <f>INDEX($G:$G,A124)</f>
+        <v>210750273</v>
+      </c>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>41</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <f>INDEX($G:G,A125)</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>42</v>
+      </c>
+      <c r="C126">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126">
+        <v>1.2625994430592999</v>
+      </c>
+      <c r="G126" s="2">
+        <v>24396481</v>
+      </c>
+      <c r="J126" t="e">
+        <f>INDEX($G:$G,A126)*(INDEX($E:$E,A126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L126" s="2">
+        <v>30802983.323206794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>42</v>
+      </c>
+      <c r="J127">
+        <f>INDEX($G:$G,A127)</f>
+        <v>24396481</v>
+      </c>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>42</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f>INDEX($G:G,A128)</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="C129">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129">
+        <v>0.99472956131107804</v>
+      </c>
+      <c r="G129" s="2">
+        <v>221366</v>
+      </c>
+      <c r="J129" t="e">
+        <f>INDEX($G:$G,A129)*(INDEX($E:$E,A129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L129" s="2">
+        <v>220199.3040691881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="J130">
+        <f>INDEX($G:$G,A130)</f>
+        <v>221366</v>
+      </c>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>43</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f>INDEX($G:G,A131)</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>44</v>
+      </c>
+      <c r="C132">
+        <v>44</v>
+      </c>
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132">
+        <v>0.99482226936644302</v>
+      </c>
+      <c r="G132" s="2">
+        <v>10432</v>
+      </c>
+      <c r="J132" t="e">
+        <f>INDEX($G:$G,A132)*(INDEX($E:$E,A132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L132" s="2">
+        <v>10377.985914030734</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>44</v>
+      </c>
+      <c r="J133">
+        <f>INDEX($G:$G,A133)</f>
+        <v>10432</v>
+      </c>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>44</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f>INDEX($G:G,A134)</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+      <c r="C135">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135">
+        <v>0.99417365434823801</v>
+      </c>
+      <c r="G135" s="2">
+        <v>296</v>
+      </c>
+      <c r="J135" t="e">
+        <f>INDEX($G:$G,A135)*(INDEX($E:$E,A135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L135" s="2">
+        <v>294.27540168707844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="J136">
+        <f>INDEX($G:$G,A136)</f>
+        <v>296</v>
+      </c>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>45</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f>INDEX($G:G,A137)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>46</v>
+      </c>
+      <c r="C138">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138">
+        <v>0.99104885024245204</v>
+      </c>
+      <c r="G138" s="2">
+        <v>2151</v>
+      </c>
+      <c r="J138" t="e">
+        <f>INDEX($G:$G,A138)*(INDEX($E:$E,A138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L138" s="2">
+        <v>2131.7460768715146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>46</v>
+      </c>
+      <c r="J139">
+        <f>INDEX($G:$G,A139)</f>
+        <v>2151</v>
+      </c>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>46</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f>INDEX($G:G,A140)</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>47</v>
+      </c>
+      <c r="C141">
+        <v>47</v>
+      </c>
+      <c r="D141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141">
+        <v>0.99142615553283597</v>
+      </c>
+      <c r="G141" s="2">
+        <v>686</v>
+      </c>
+      <c r="J141" t="e">
+        <f>INDEX($G:$G,A141)*(INDEX($E:$E,A141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L141" s="2">
+        <v>680.11834269552548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>47</v>
+      </c>
+      <c r="J142">
+        <f>INDEX($G:$G,A142)</f>
+        <v>686</v>
+      </c>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>47</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f>INDEX($G:G,A143)</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>48</v>
+      </c>
+      <c r="C144">
+        <v>48</v>
+      </c>
+      <c r="D144" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144">
+        <v>0.99032845029036998</v>
+      </c>
+      <c r="G144" s="2">
+        <v>499</v>
+      </c>
+      <c r="J144" t="e">
+        <f>INDEX($G:$G,A144)*(INDEX($E:$E,A144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L144" s="2">
+        <v>494.17389669489461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="J145">
+        <f>INDEX($G:$G,A145)</f>
+        <v>499</v>
+      </c>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>48</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f>INDEX($G:G,A146)</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>49</v>
+      </c>
+      <c r="C147">
+        <v>49</v>
+      </c>
+      <c r="D147" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147">
+        <v>1.5544005589154499</v>
+      </c>
+      <c r="G147" s="2">
+        <v>5018603</v>
+      </c>
+      <c r="J147" t="e">
+        <f>INDEX($G:$G,A147)*(INDEX($E:$E,A147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L147" s="2">
+        <v>7800919.3081747536</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>49</v>
+      </c>
+      <c r="J148">
+        <f>INDEX($G:$G,A148)</f>
+        <v>5018603</v>
+      </c>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>49</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f>INDEX($G:G,A149)</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>50</v>
+      </c>
+      <c r="D150" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150">
+        <v>0.99390763097371004</v>
+      </c>
+      <c r="G150" s="2">
+        <v>7042431</v>
+      </c>
+      <c r="J150" t="e">
+        <f>INDEX($G:$G,A150)*(INDEX($E:$E,A150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L150" s="2">
+        <v>6999525.9115058156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="J151">
+        <f>INDEX($G:$G,A151)</f>
+        <v>7042431</v>
+      </c>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <f>INDEX($G:G,A152)</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>51</v>
+      </c>
+      <c r="C153">
+        <v>51</v>
+      </c>
+      <c r="D153" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153">
+        <v>0.99315190485392801</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1465244</v>
+      </c>
+      <c r="J153" t="e">
+        <f>INDEX($G:$G,A153)*(INDEX($E:$E,A153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1455209.8696757888</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="J154">
+        <f>INDEX($G:$G,A154)</f>
+        <v>1465244</v>
+      </c>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>51</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f>INDEX($G:G,A155)</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>52</v>
+      </c>
+      <c r="C156">
+        <v>52</v>
+      </c>
+      <c r="D156" t="s">
+        <v>90</v>
+      </c>
+      <c r="E156">
+        <v>2.4151325594945399</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1152057</v>
+      </c>
+      <c r="J156" t="e">
+        <f>INDEX($G:$G,A156)*(INDEX($E:$E,A156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L156" s="2">
+        <v>2782370.371093601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>52</v>
+      </c>
+      <c r="J157">
+        <f>INDEX($G:$G,A157)</f>
+        <v>1152057</v>
+      </c>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>52</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f>INDEX($G:G,A158)</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>53</v>
+      </c>
+      <c r="C159">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159">
+        <v>1.33527733145297</v>
+      </c>
+      <c r="G159" s="2">
+        <v>19389</v>
+      </c>
+      <c r="J159" t="e">
+        <f>INDEX($G:$G,A159)*(INDEX($E:$E,A159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L159" s="2">
+        <v>25889.692179541635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>53</v>
+      </c>
+      <c r="J160">
+        <f>INDEX($G:$G,A160)</f>
+        <v>19389</v>
+      </c>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>53</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <f>INDEX($G:G,A161)</f>
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+      <c r="C162">
+        <v>54</v>
+      </c>
+      <c r="D162" t="s">
+        <v>52</v>
+      </c>
+      <c r="E162">
+        <v>0.99831748425879197</v>
+      </c>
+      <c r="G162" s="2">
+        <v>197</v>
+      </c>
+      <c r="J162" t="e">
+        <f>INDEX($G:$G,A162)*(INDEX($E:$E,A162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L162" s="2">
+        <v>196.66854439898202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>54</v>
+      </c>
+      <c r="J163">
+        <f>INDEX($G:$G,A163)</f>
+        <v>197</v>
+      </c>
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>54</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f>INDEX($G:G,A164)</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>55</v>
+      </c>
+      <c r="C165">
+        <v>55</v>
+      </c>
+      <c r="D165" t="s">
+        <v>84</v>
+      </c>
+      <c r="E165">
+        <v>1.00078452001425</v>
+      </c>
+      <c r="G165" s="2">
+        <v>11</v>
+      </c>
+      <c r="J165" t="e">
+        <f>INDEX($G:$G,A165)*(INDEX($E:$E,A165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L165" s="2">
+        <v>11.008629720156749</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>55</v>
+      </c>
+      <c r="J166">
+        <f>INDEX($G:$G,A166)</f>
+        <v>11</v>
+      </c>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>55</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <f>INDEX($G:G,A167)</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="C168">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168">
+        <v>0.99926374319143496</v>
+      </c>
+      <c r="G168" s="2">
+        <v>54</v>
+      </c>
+      <c r="J168" t="e">
+        <f>INDEX($G:$G,A168)*(INDEX($E:$E,A168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L168" s="2">
+        <v>53.960242132337491</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="J169">
+        <f>INDEX($G:$G,A169)</f>
+        <v>54</v>
+      </c>
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>56</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f>INDEX($G:G,A170)</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>57</v>
+      </c>
+      <c r="C171">
+        <v>57</v>
+      </c>
+      <c r="D171" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171">
+        <v>1.00112294550547</v>
+      </c>
+      <c r="G171" s="2">
+        <v>2110</v>
+      </c>
+      <c r="J171" t="e">
+        <f>INDEX($G:$G,A171)*(INDEX($E:$E,A171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L171" s="2">
+        <v>2112.3694150165416</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+      <c r="J172">
+        <f>INDEX($G:$G,A172)</f>
+        <v>2110</v>
+      </c>
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>57</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f>INDEX($G:G,A173)</f>
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>58</v>
+      </c>
+      <c r="C174">
+        <v>58</v>
+      </c>
+      <c r="D174" t="s">
+        <v>110</v>
+      </c>
+      <c r="E174">
+        <v>0.99451376832671601</v>
+      </c>
+      <c r="G174" s="2">
+        <v>24</v>
+      </c>
+      <c r="J174" t="e">
+        <f>INDEX($G:$G,A174)*(INDEX($E:$E,A174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L174" s="2">
+        <v>23.868330439841184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>58</v>
+      </c>
+      <c r="J175">
+        <f>INDEX($G:$G,A175)</f>
+        <v>24</v>
+      </c>
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>58</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f>INDEX($G:G,A176)</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>59</v>
+      </c>
+      <c r="C177">
+        <v>59</v>
+      </c>
+      <c r="D177" t="s">
+        <v>46</v>
+      </c>
+      <c r="E177">
+        <v>0.98926395449688098</v>
+      </c>
+      <c r="G177" s="2">
+        <v>532555</v>
+      </c>
+      <c r="J177" t="e">
+        <f>INDEX($G:$G,A177)*(INDEX($E:$E,A177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L177" s="2">
+        <v>526837.46528708644</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>59</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J178">
+        <f>INDEX($G:$G,A178)</f>
+        <v>532555</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:M178">
+    <sortCondition ref="A1:A178"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
